--- a/data/Figure 3/20201104_FullData.xlsx
+++ b/data/Figure 3/20201104_FullData.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Douzal\OneDrive - SDSN Association Paris\FABLE\Figures\Data\Figure 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\GitHub\Country_Snapshots\data\Figure 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B0840-0084-44B9-837F-0F7AF341D623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37978E6-9D2A-409E-9462-5732A1244AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$269</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -342,9 +345,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -382,7 +385,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -488,7 +491,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -630,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -641,10 +644,21 @@
   <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -793,268 +807,268 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F6">
-        <v>0.44940749999999996</v>
+        <v>4.7157399999999898E-2</v>
       </c>
       <c r="G6">
-        <v>449.40750000000003</v>
+        <v>47.157399999999903</v>
       </c>
       <c r="H6">
-        <v>449407500</v>
+        <v>47157399.999999903</v>
       </c>
       <c r="I6">
-        <v>449407.5</v>
+        <v>47157.3999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E7">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F7">
-        <v>8.5652994999999996E-2</v>
+        <v>2.2154899999999996E-3</v>
       </c>
       <c r="G7">
-        <v>85.652995000000004</v>
+        <v>2.21549</v>
       </c>
       <c r="H7">
-        <v>85652995</v>
+        <v>2215490</v>
       </c>
       <c r="I7">
-        <v>85652.994999999995</v>
+        <v>2215.4899999999998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E8">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F8">
-        <v>6.269509999999999E-2</v>
+        <v>9.7733999999999994E-4</v>
       </c>
       <c r="G8">
-        <v>62.695099999999996</v>
+        <v>0.9773400000000001</v>
       </c>
       <c r="H8">
-        <v>62695100</v>
+        <v>977340</v>
       </c>
       <c r="I8">
-        <v>62695.1</v>
+        <v>977.34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>2012</v>
       </c>
       <c r="F9">
-        <v>9.3373229999999996</v>
+        <v>6.8648199999999701E-2</v>
       </c>
       <c r="G9">
-        <v>9337.3230000000003</v>
+        <v>68.648199999999704</v>
       </c>
       <c r="H9">
-        <v>9337323000</v>
+        <v>68648199.999999702</v>
       </c>
       <c r="I9">
-        <v>9337323</v>
+        <v>68648.199999999706</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>2012</v>
       </c>
       <c r="F10">
-        <v>1.4623489999999999</v>
+        <v>3.30769999999999E-4</v>
       </c>
       <c r="G10">
-        <v>1462.3489999999999</v>
+        <v>0.33076999999999901</v>
       </c>
       <c r="H10">
-        <v>1462349000</v>
+        <v>330769.99999999901</v>
       </c>
       <c r="I10">
-        <v>1462349</v>
+        <v>330.76999999999902</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>2012</v>
       </c>
       <c r="F11">
-        <v>0.15823699999999999</v>
+        <v>1.6945999999999999E-4</v>
       </c>
       <c r="G11">
-        <v>158.23699999999999</v>
+        <v>0.16946</v>
       </c>
       <c r="H11">
-        <v>158237000</v>
+        <v>169460</v>
       </c>
       <c r="I11">
-        <v>158237</v>
+        <v>169.46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E12">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="F12">
-        <v>6.5971109999999999E-2</v>
+        <v>2.0560000000000001E-3</v>
       </c>
       <c r="G12">
-        <v>65.971109999999996</v>
+        <v>2.056</v>
       </c>
       <c r="H12">
-        <v>65971110</v>
+        <v>2056000</v>
       </c>
       <c r="I12">
-        <v>65971.11</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E13">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="F13">
-        <v>9.0701069999999991E-3</v>
+        <v>6.0941099999999998E-2</v>
       </c>
       <c r="G13">
-        <v>9.0701070000000001</v>
+        <v>60.941099999999999</v>
       </c>
       <c r="H13">
-        <v>9070107</v>
+        <v>60941100</v>
       </c>
       <c r="I13">
-        <v>9070.107</v>
+        <v>60941.1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E14">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="F14">
-        <v>1.0277969999999999E-2</v>
+        <v>2.7517999999999997E-2</v>
       </c>
       <c r="G14">
-        <v>10.27797</v>
+        <v>27.518000000000001</v>
       </c>
       <c r="H14">
-        <v>10277970</v>
+        <v>27518000</v>
       </c>
       <c r="I14">
-        <v>10277.969999999999</v>
+        <v>27518</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -1066,56 +1080,56 @@
         <v>70</v>
       </c>
       <c r="E15">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F15">
-        <v>1.9951117669422199E-2</v>
+        <v>0.43564863224338873</v>
       </c>
       <c r="G15">
-        <v>19.951117669422203</v>
+        <v>435.64863224338876</v>
       </c>
       <c r="H15">
-        <v>19951117.669422202</v>
+        <v>435648632.24338871</v>
       </c>
       <c r="I15">
-        <v>19951.117669422201</v>
+        <v>435648.63224338874</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F16">
-        <v>1.7579984155100001E-3</v>
+        <v>3.3686459823073424E-2</v>
       </c>
       <c r="G16">
-        <v>1.7579984155100001</v>
+        <v>33.686459823073427</v>
       </c>
       <c r="H16">
-        <v>1757998.4155100002</v>
+        <v>33686459.823073424</v>
       </c>
       <c r="I16">
-        <v>1757.9984155100001</v>
+        <v>33686.459823073426</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>67</v>
@@ -1124,715 +1138,715 @@
         <v>70</v>
       </c>
       <c r="E17">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F17">
-        <v>6.0513743694699997E-3</v>
+        <v>1.1787516136621268E-2</v>
       </c>
       <c r="G17">
-        <v>6.0513743694699995</v>
+        <v>11.787516136621269</v>
       </c>
       <c r="H17">
-        <v>6051374.3694699993</v>
+        <v>11787516.136621268</v>
       </c>
       <c r="I17">
-        <v>6051.3743694699997</v>
+        <v>11787.516136621269</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="F18">
-        <v>1.5101193799999999</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1510.1193799999999</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1510119380</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1510119.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="F19">
-        <v>0.13551217237999999</v>
+        <v>5.1543557854348755E-2</v>
       </c>
       <c r="G19">
-        <v>135.51217238000001</v>
+        <v>51.543557854348755</v>
       </c>
       <c r="H19">
-        <v>135512172.38</v>
+        <v>51543557.854348756</v>
       </c>
       <c r="I19">
-        <v>135512.17238</v>
+        <v>51543.557854348757</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E20">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="F20">
-        <v>6.5052799999999994E-2</v>
+        <v>3.6751817750693321E-3</v>
       </c>
       <c r="G20">
-        <v>65.052800000000005</v>
+        <v>3.6751817750693321</v>
       </c>
       <c r="H20">
-        <v>65052800</v>
+        <v>3675181.7750693322</v>
       </c>
       <c r="I20">
-        <v>65052.800000000003</v>
+        <v>3675.1817750693322</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E21">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F21">
-        <v>0.50812000000000002</v>
+        <v>2.8516672704303998E-4</v>
       </c>
       <c r="G21">
-        <v>508.12</v>
+        <v>0.28516672704304002</v>
       </c>
       <c r="H21">
-        <v>508120000</v>
+        <v>285166.72704303998</v>
       </c>
       <c r="I21">
-        <v>508120</v>
+        <v>285.16672704304</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E22">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F22">
-        <v>4.1062000000000001E-2</v>
+        <v>1.4170429194969523E-2</v>
       </c>
       <c r="G22">
-        <v>41.061999999999998</v>
+        <v>14.170429194969524</v>
       </c>
       <c r="H22">
-        <v>41062000</v>
+        <v>14170429.194969524</v>
       </c>
       <c r="I22">
-        <v>41062</v>
+        <v>14170.429194969523</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E23">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>4.6787786797216523E-4</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.46787786797216524</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>467877.86797216523</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>467.87786797216523</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E24">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F24">
-        <v>9.7116999999999995E-2</v>
+        <v>1.3183866247265794E-3</v>
       </c>
       <c r="G24">
-        <v>97.117000000000004</v>
+        <v>1.3183866247265796</v>
       </c>
       <c r="H24">
-        <v>97117000</v>
+        <v>1318386.6247265795</v>
       </c>
       <c r="I24">
-        <v>97117</v>
+        <v>1318.3866247265796</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E25">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="F25">
-        <v>0.21891363</v>
+        <v>1.5433531240086702E-3</v>
       </c>
       <c r="G25">
-        <v>218.91363000000001</v>
+        <v>1.5433531240086702</v>
       </c>
       <c r="H25">
-        <v>218913630</v>
+        <v>1543353.1240086702</v>
       </c>
       <c r="I25">
-        <v>218913.63</v>
+        <v>1543.3531240086702</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E26">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="F26">
-        <v>1.8166338399999999E-2</v>
+        <v>4.6608691914721154E-2</v>
       </c>
       <c r="G26">
-        <v>18.166338400000001</v>
+        <v>46.608691914721163</v>
       </c>
       <c r="H26">
-        <v>18166338.400000002</v>
+        <v>46608691.914721161</v>
       </c>
       <c r="I26">
-        <v>18166.338400000001</v>
+        <v>46608.691914721159</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E27">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="F27">
-        <v>3.4885039999999999E-2</v>
+        <v>3.3233281929715574E-4</v>
       </c>
       <c r="G27">
-        <v>34.885040000000004</v>
+        <v>0.33233281929715575</v>
       </c>
       <c r="H27">
-        <v>34885040</v>
+        <v>332332.81929715577</v>
       </c>
       <c r="I27">
-        <v>34885.040000000001</v>
+        <v>332.33281929715577</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E28">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F28">
-        <v>0.46778177999999998</v>
+        <v>6.0407087080287919E-4</v>
       </c>
       <c r="G28">
-        <v>467.78178000000003</v>
+        <v>0.60407087080287925</v>
       </c>
       <c r="H28">
-        <v>467781780</v>
+        <v>604070.87080287922</v>
       </c>
       <c r="I28">
-        <v>467781.78</v>
+        <v>604.0708708028792</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E29">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F29">
-        <v>4.3321829999999999E-2</v>
+        <v>3.5070996893919994E-5</v>
       </c>
       <c r="G29">
-        <v>43.321830000000006</v>
+        <v>3.5070996893920001E-2</v>
       </c>
       <c r="H29">
-        <v>43321830</v>
+        <v>35070.996893919997</v>
       </c>
       <c r="I29">
-        <v>43321.83</v>
+        <v>35.070996893919997</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E30">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F30">
-        <v>2.4374619999999996E-2</v>
+        <v>-6.1148021075200877E-2</v>
       </c>
       <c r="G30">
-        <v>24.37462</v>
+        <v>-61.14802107520088</v>
       </c>
       <c r="H30">
-        <v>24374620</v>
+        <v>-61148021.075200878</v>
       </c>
       <c r="I30">
-        <v>24374.62</v>
+        <v>-61148.021075200879</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E31">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="F31">
-        <v>8.0099999999999995E-4</v>
+        <v>-1.4444429385289058E-3</v>
       </c>
       <c r="G31">
-        <v>0.80100000000000005</v>
+        <v>-1.4444429385289059</v>
       </c>
       <c r="H31">
-        <v>801000</v>
+        <v>-1444442.9385289059</v>
       </c>
       <c r="I31">
-        <v>801</v>
+        <v>-1444.4429385289059</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="F32">
-        <v>1.5099999999999998E-4</v>
+        <v>-4.6494039353947303E-3</v>
       </c>
       <c r="G32">
-        <v>0.151</v>
+        <v>-4.6494039353947301</v>
       </c>
       <c r="H32">
-        <v>151000</v>
+        <v>-4649403.9353947304</v>
       </c>
       <c r="I32">
-        <v>151</v>
+        <v>-4649.4039353947301</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
         <v>70</v>
       </c>
       <c r="E33">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.44940749999999996</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>449.40750000000003</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>449407500</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>449407.5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
         <v>70</v>
       </c>
       <c r="E34">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="F34">
-        <v>6.3E-5</v>
+        <v>8.5652994999999996E-2</v>
       </c>
       <c r="G34">
-        <v>6.3E-2</v>
+        <v>85.652995000000004</v>
       </c>
       <c r="H34">
-        <v>63000</v>
+        <v>85652995</v>
       </c>
       <c r="I34">
-        <v>63</v>
+        <v>85652.994999999995</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
         <v>70</v>
       </c>
       <c r="E35">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="F35">
-        <v>0.29756634999999998</v>
+        <v>6.269509999999999E-2</v>
       </c>
       <c r="G35">
-        <v>297.56635</v>
+        <v>62.695099999999996</v>
       </c>
       <c r="H35">
-        <v>297566350</v>
+        <v>62695100</v>
       </c>
       <c r="I35">
-        <v>297566.34999999998</v>
+        <v>62695.1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E36">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="F36">
-        <v>3.0386219999999999E-2</v>
+        <v>0.24402209999999999</v>
       </c>
       <c r="G36">
-        <v>30.386220000000002</v>
+        <v>244.02210000000002</v>
       </c>
       <c r="H36">
-        <v>30386220</v>
+        <v>244022100</v>
       </c>
       <c r="I36">
-        <v>30386.22</v>
+        <v>244022.1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E37">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="F37">
-        <v>1.642907E-2</v>
+        <v>1.8091599999999999E-2</v>
       </c>
       <c r="G37">
-        <v>16.429069999999999</v>
+        <v>18.0916</v>
       </c>
       <c r="H37">
-        <v>16429070</v>
+        <v>18091600</v>
       </c>
       <c r="I37">
-        <v>16429.07</v>
+        <v>18091.599999999999</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E38">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F38">
-        <v>0.43564863224338873</v>
+        <v>9.7124999999999989E-3</v>
       </c>
       <c r="G38">
-        <v>435.64863224338876</v>
+        <v>9.7125000000000004</v>
       </c>
       <c r="H38">
-        <v>435648632.24338871</v>
+        <v>9712500</v>
       </c>
       <c r="I38">
-        <v>435648.63224338874</v>
+        <v>9712.5</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E39">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F39">
-        <v>3.3686459823073424E-2</v>
+        <v>0.1520705</v>
       </c>
       <c r="G39">
-        <v>33.686459823073427</v>
+        <v>152.07050000000001</v>
       </c>
       <c r="H39">
-        <v>33686459.823073424</v>
+        <v>152070500</v>
       </c>
       <c r="I39">
-        <v>33686.459823073426</v>
+        <v>152070.5</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="B40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E40">
-        <v>2017</v>
+        <v>0.33180609999999994</v>
       </c>
       <c r="F40">
-        <v>1.1787516136621268E-2</v>
+        <v>0.33180609999999994</v>
       </c>
       <c r="G40">
-        <v>11.787516136621269</v>
+        <v>331.80609999999996</v>
       </c>
       <c r="H40">
-        <v>11787516.136621268</v>
+        <v>331806100</v>
       </c>
       <c r="I40">
-        <v>11787.516136621269</v>
+        <v>331806.09999999998</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E41">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>5.0082E-3</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>5.0081999999999995</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>5008200</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>5008.2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1953,793 +1967,793 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E46">
         <v>2017</v>
       </c>
       <c r="F46">
-        <v>4.1022579646965547E-2</v>
+        <v>2.4216478550603188E-2</v>
       </c>
       <c r="G46">
-        <v>41.022579646965546</v>
+        <v>24.216478550603188</v>
       </c>
       <c r="H46">
-        <v>41022579.646965548</v>
+        <v>24216478.550603189</v>
       </c>
       <c r="I46">
-        <v>41022.579646965547</v>
+        <v>24216.478550603188</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E47">
         <v>2017</v>
       </c>
       <c r="F47">
-        <v>5.9223781774421372E-3</v>
+        <v>7.9598524071984051E-3</v>
       </c>
       <c r="G47">
-        <v>5.9223781774421376</v>
+        <v>7.9598524071984054</v>
       </c>
       <c r="H47">
-        <v>5922378.1774421381</v>
+        <v>7959852.4071984049</v>
       </c>
       <c r="I47">
-        <v>5922.3781774421377</v>
+        <v>7959.8524071984048</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E48">
         <v>2017</v>
       </c>
       <c r="F48">
-        <v>1.8882736257139997E-3</v>
+        <v>2.5169179714762718E-2</v>
       </c>
       <c r="G48">
-        <v>1.8882736257139998</v>
+        <v>25.16917971476272</v>
       </c>
       <c r="H48">
-        <v>1888273.6257139998</v>
+        <v>25169179.714762717</v>
       </c>
       <c r="I48">
-        <v>1888.2736257139998</v>
+        <v>25169.179714762719</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E49">
         <v>2017</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>5.021640915968524E-5</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>5.0216409159685241E-2</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>50216.409159685245</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>50.216409159685242</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E50">
         <v>2017</v>
       </c>
       <c r="F50">
-        <v>0.76566115287461001</v>
+        <v>2.5312319999999997E-4</v>
       </c>
       <c r="G50">
-        <v>765.66115287461002</v>
+        <v>0.25312319999999999</v>
       </c>
       <c r="H50">
-        <v>765661152.87461007</v>
+        <v>253123.20000000001</v>
       </c>
       <c r="I50">
-        <v>765661.15287461004</v>
+        <v>253.1232</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E51">
         <v>2017</v>
       </c>
       <c r="F51">
-        <v>6.4495901799437497E-2</v>
+        <v>2.0100666666666672E-3</v>
       </c>
       <c r="G51">
-        <v>64.49590179943749</v>
+        <v>2.0100666666666673</v>
       </c>
       <c r="H51">
-        <v>64495901.799437493</v>
+        <v>2010066.6666666672</v>
       </c>
       <c r="I51">
-        <v>64495.901799437495</v>
+        <v>2010.0666666666673</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E52">
         <v>2017</v>
       </c>
       <c r="F52">
-        <v>1.0181506769459999E-2</v>
+        <v>2.4771999999999999E-4</v>
       </c>
       <c r="G52">
-        <v>10.18150676946</v>
+        <v>0.24772</v>
       </c>
       <c r="H52">
-        <v>10181506.76946</v>
+        <v>247720</v>
       </c>
       <c r="I52">
-        <v>10181.50676946</v>
+        <v>247.72</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E53">
         <v>2017</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1.239386E-6</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1.2393860000000001E-3</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1239.3860000000002</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1.2393860000000001</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>2017</v>
       </c>
       <c r="F54">
-        <v>3.8412329811494374E-2</v>
+        <v>3.1565080410000008E-3</v>
       </c>
       <c r="G54">
-        <v>38.412329811494374</v>
+        <v>3.1565080410000008</v>
       </c>
       <c r="H54">
-        <v>38412329.811494373</v>
+        <v>3156508.0410000011</v>
       </c>
       <c r="I54">
-        <v>38412.329811494375</v>
+        <v>3156.508041000001</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E55">
         <v>2017</v>
       </c>
       <c r="F55">
-        <v>8.6318824583649853E-3</v>
+        <v>3.5131094167800024E-3</v>
       </c>
       <c r="G55">
-        <v>8.631882458364986</v>
+        <v>3.5131094167800025</v>
       </c>
       <c r="H55">
-        <v>8631882.4583649859</v>
+        <v>3513109.4167800024</v>
       </c>
       <c r="I55">
-        <v>8631.8824583649857</v>
+        <v>3513.1094167800024</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E56">
         <v>2017</v>
       </c>
       <c r="F56">
-        <v>1.1994813454994804E-3</v>
+        <v>0.12786694745398</v>
       </c>
       <c r="G56">
-        <v>1.1994813454994806</v>
+        <v>127.86694745398</v>
       </c>
       <c r="H56">
-        <v>1199481.3454994806</v>
+        <v>127866947.45398</v>
       </c>
       <c r="I56">
-        <v>1199.4813454994805</v>
+        <v>127866.94745398</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E57">
         <v>2017</v>
       </c>
       <c r="F57">
-        <v>1.6998772875622659</v>
+        <v>-0.15143120268074012</v>
       </c>
       <c r="G57">
-        <v>1699.877287562266</v>
+        <v>-151.43120268074014</v>
       </c>
       <c r="H57">
-        <v>1699877287.5622659</v>
+        <v>-151431202.68074012</v>
       </c>
       <c r="I57">
-        <v>1699877.287562266</v>
+        <v>-151431.20268074013</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E58">
         <v>2017</v>
       </c>
       <c r="F58">
-        <v>0.23320211648754491</v>
+        <v>-6.8292914230233407E-3</v>
       </c>
       <c r="G58">
-        <v>233.20211648754494</v>
+        <v>-6.8292914230233412</v>
       </c>
       <c r="H58">
-        <v>233202116.48754492</v>
+        <v>-6829291.4230233412</v>
       </c>
       <c r="I58">
-        <v>233202.11648754493</v>
+        <v>-6829.2914230233409</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
         <v>70</v>
       </c>
       <c r="E59">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F59">
-        <v>9.4485899057828795E-2</v>
+        <v>9.3373229999999996</v>
       </c>
       <c r="G59">
-        <v>94.485899057828803</v>
+        <v>9337.3230000000003</v>
       </c>
       <c r="H59">
-        <v>94485899.057828814</v>
+        <v>9337323000</v>
       </c>
       <c r="I59">
-        <v>94485.899057828807</v>
+        <v>9337323</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
         <v>70</v>
       </c>
       <c r="E60">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F60">
-        <v>3.6631715142521122E-2</v>
+        <v>1.4623489999999999</v>
       </c>
       <c r="G60">
-        <v>36.631715142521131</v>
+        <v>1462.3489999999999</v>
       </c>
       <c r="H60">
-        <v>36631715.142521128</v>
+        <v>1462349000</v>
       </c>
       <c r="I60">
-        <v>36631.715142521127</v>
+        <v>1462349</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E61">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F61">
-        <v>7.5884258452634098E-3</v>
+        <v>0.15823699999999999</v>
       </c>
       <c r="G61">
-        <v>7.5884258452634104</v>
+        <v>158.23699999999999</v>
       </c>
       <c r="H61">
-        <v>7588425.8452634104</v>
+        <v>158237000</v>
       </c>
       <c r="I61">
-        <v>7588.4258452634103</v>
+        <v>158237</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E62">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F62">
-        <v>1.2533990826406566E-3</v>
+        <v>0.225603</v>
       </c>
       <c r="G62">
-        <v>1.2533990826406567</v>
+        <v>225.60300000000001</v>
       </c>
       <c r="H62">
-        <v>1253399.0826406565</v>
+        <v>225603000</v>
       </c>
       <c r="I62">
-        <v>1253.3990826406566</v>
+        <v>225603</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E63">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F63">
-        <v>0.38180282571861951</v>
+        <v>0.14714099999999999</v>
       </c>
       <c r="G63">
-        <v>381.80282571861954</v>
+        <v>147.14099999999999</v>
       </c>
       <c r="H63">
-        <v>381802825.71861953</v>
+        <v>147141000</v>
       </c>
       <c r="I63">
-        <v>381802.82571861951</v>
+        <v>147141</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E64">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F64">
-        <v>3.0330485879475712E-2</v>
+        <v>0.177618</v>
       </c>
       <c r="G64">
-        <v>30.330485879475713</v>
+        <v>177.61799999999999</v>
       </c>
       <c r="H64">
-        <v>30330485.879475713</v>
+        <v>177618000</v>
       </c>
       <c r="I64">
-        <v>30330.485879475713</v>
+        <v>177618</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E65">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F65">
-        <v>2.0663703237367728E-2</v>
+        <v>0.37757999999999997</v>
       </c>
       <c r="G65">
-        <v>20.663703237367727</v>
+        <v>377.58</v>
       </c>
       <c r="H65">
-        <v>20663703.237367727</v>
+        <v>377580000</v>
       </c>
       <c r="I65">
-        <v>20663.703237367728</v>
+        <v>377580</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E66">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>9.9139999999999992E-3</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>9.9139999999999997</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>9914000</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>9914</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E67">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F67">
-        <v>5.4248234975761669</v>
+        <v>2.2012199999999999E-2</v>
       </c>
       <c r="G67">
-        <v>5424.823497576167</v>
+        <v>22.0122</v>
       </c>
       <c r="H67">
-        <v>5424823497.5761671</v>
+        <v>22012200</v>
       </c>
       <c r="I67">
-        <v>5424823.4975761669</v>
+        <v>22012.2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E68">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F68">
-        <v>0.35886689782610354</v>
+        <v>-0.59752899999999998</v>
       </c>
       <c r="G68">
-        <v>358.86689782610358</v>
+        <v>-597.529</v>
       </c>
       <c r="H68">
-        <v>358866897.82610357</v>
+        <v>-597529000</v>
       </c>
       <c r="I68">
-        <v>358866.89782610355</v>
+        <v>-597529</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
       </c>
       <c r="E69">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="F69">
-        <v>0.13095541665689484</v>
+        <v>6.5971109999999999E-2</v>
       </c>
       <c r="G69">
-        <v>130.95541665689484</v>
+        <v>65.971109999999996</v>
       </c>
       <c r="H69">
-        <v>130955416.65689483</v>
+        <v>65971110</v>
       </c>
       <c r="I69">
-        <v>130955.41665689483</v>
+        <v>65971.11</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E70">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>9.0701069999999991E-3</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>9.0701070000000001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>9070107</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>9070.107</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E71">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="F71">
-        <v>4.7157399999999898E-2</v>
+        <v>1.0277969999999999E-2</v>
       </c>
       <c r="G71">
-        <v>47.157399999999903</v>
+        <v>10.27797</v>
       </c>
       <c r="H71">
-        <v>47157399.999999903</v>
+        <v>10277970</v>
       </c>
       <c r="I71">
-        <v>47157.3999999999</v>
+        <v>10277.969999999999</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
         <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E72">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="F72">
-        <v>2.2154899999999996E-3</v>
+        <v>3.3258539999999996E-2</v>
       </c>
       <c r="G72">
-        <v>2.21549</v>
+        <v>33.258540000000004</v>
       </c>
       <c r="H72">
-        <v>2215490</v>
+        <v>33258540</v>
       </c>
       <c r="I72">
-        <v>2215.4899999999998</v>
+        <v>33258.54</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
         <v>69</v>
@@ -2748,85 +2762,85 @@
         <v>73</v>
       </c>
       <c r="E73">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="F73">
-        <v>9.7733999999999994E-4</v>
+        <v>1.1879099999999999E-3</v>
       </c>
       <c r="G73">
-        <v>0.9773400000000001</v>
+        <v>1.18791</v>
       </c>
       <c r="H73">
-        <v>977340</v>
+        <v>1187910</v>
       </c>
       <c r="I73">
-        <v>977.34</v>
+        <v>1187.9100000000001</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
         <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E74">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="F74">
-        <v>6.8648199999999701E-2</v>
+        <v>1.37214E-3</v>
       </c>
       <c r="G74">
-        <v>68.648199999999704</v>
+        <v>1.3721400000000001</v>
       </c>
       <c r="H74">
-        <v>68648199.999999702</v>
+        <v>1372140</v>
       </c>
       <c r="I74">
-        <v>68648.199999999706</v>
+        <v>1372.14</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
         <v>69</v>
       </c>
       <c r="D75" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E75">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="F75">
-        <v>3.30769999999999E-4</v>
+        <v>3.2593400000000002E-2</v>
       </c>
       <c r="G75">
-        <v>0.33076999999999901</v>
+        <v>32.593400000000003</v>
       </c>
       <c r="H75">
-        <v>330769.99999999901</v>
+        <v>32593400</v>
       </c>
       <c r="I75">
-        <v>330.76999999999902</v>
+        <v>32593.4</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
         <v>69</v>
@@ -2835,578 +2849,578 @@
         <v>73</v>
       </c>
       <c r="E76">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="F76">
-        <v>1.6945999999999999E-4</v>
+        <v>6.1799999999999998E-5</v>
       </c>
       <c r="G76">
-        <v>0.16946</v>
+        <v>6.1800000000000001E-2</v>
       </c>
       <c r="H76">
-        <v>169460</v>
+        <v>61800</v>
       </c>
       <c r="I76">
-        <v>169.46</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
         <v>69</v>
       </c>
       <c r="D77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E77">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="F77">
-        <v>2.0560000000000001E-3</v>
+        <v>9.179E-5</v>
       </c>
       <c r="G77">
-        <v>2.056</v>
+        <v>9.179000000000001E-2</v>
       </c>
       <c r="H77">
-        <v>2056000</v>
+        <v>91790</v>
       </c>
       <c r="I77">
-        <v>2056</v>
+        <v>91.79</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
         <v>69</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E78">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="F78">
-        <v>6.0941099999999998E-2</v>
+        <v>2.1308999999999998E-3</v>
       </c>
       <c r="G78">
-        <v>60.941099999999999</v>
+        <v>2.1309</v>
       </c>
       <c r="H78">
-        <v>60941100</v>
+        <v>2130900</v>
       </c>
       <c r="I78">
-        <v>60941.1</v>
+        <v>2130.9</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
         <v>69</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E79">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="F79">
-        <v>2.7517999999999997E-2</v>
+        <v>1.6639669999999999E-2</v>
       </c>
       <c r="G79">
-        <v>27.518000000000001</v>
+        <v>16.639669999999999</v>
       </c>
       <c r="H79">
-        <v>27518000</v>
+        <v>16639669.999999998</v>
       </c>
       <c r="I79">
-        <v>27518</v>
+        <v>16639.669999999998</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
         <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E80">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="F80">
-        <v>5.1543557854348755E-2</v>
+        <v>7.3443500000000004E-3</v>
       </c>
       <c r="G80">
-        <v>51.543557854348755</v>
+        <v>7.3443500000000004</v>
       </c>
       <c r="H80">
-        <v>51543557.854348756</v>
+        <v>7344350</v>
       </c>
       <c r="I80">
-        <v>51543.557854348757</v>
+        <v>7344.35</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
         <v>69</v>
       </c>
       <c r="D81" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E81">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="F81">
-        <v>3.6751817750693321E-3</v>
+        <v>-1.0038999999999999E-4</v>
       </c>
       <c r="G81">
-        <v>3.6751817750693321</v>
+        <v>-0.10039000000000001</v>
       </c>
       <c r="H81">
-        <v>3675181.7750693322</v>
+        <v>-100390</v>
       </c>
       <c r="I81">
-        <v>3675.1817750693322</v>
+        <v>-100.39</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E82">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F82">
-        <v>2.8516672704303998E-4</v>
+        <v>1.9951117669422199E-2</v>
       </c>
       <c r="G82">
-        <v>0.28516672704304002</v>
+        <v>19.951117669422203</v>
       </c>
       <c r="H82">
-        <v>285166.72704303998</v>
+        <v>19951117.669422202</v>
       </c>
       <c r="I82">
-        <v>285.16672704304</v>
+        <v>19951.117669422201</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D83" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E83">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F83">
-        <v>1.4170429194969523E-2</v>
+        <v>1.7579984155100001E-3</v>
       </c>
       <c r="G83">
-        <v>14.170429194969524</v>
+        <v>1.7579984155100001</v>
       </c>
       <c r="H83">
-        <v>14170429.194969524</v>
+        <v>1757998.4155100002</v>
       </c>
       <c r="I83">
-        <v>14170.429194969523</v>
+        <v>1757.9984155100001</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D84" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E84">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F84">
-        <v>4.6787786797216523E-4</v>
+        <v>6.0513743694699997E-3</v>
       </c>
       <c r="G84">
-        <v>0.46787786797216524</v>
+        <v>6.0513743694699995</v>
       </c>
       <c r="H84">
-        <v>467877.86797216523</v>
+        <v>6051374.3694699993</v>
       </c>
       <c r="I84">
-        <v>467.87786797216523</v>
+        <v>6051.3743694699997</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
         <v>69</v>
       </c>
       <c r="D85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E85">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F85">
-        <v>1.3183866247265794E-3</v>
+        <v>4.3754192999999997E-2</v>
       </c>
       <c r="G85">
-        <v>1.3183866247265796</v>
+        <v>43.754193000000001</v>
       </c>
       <c r="H85">
-        <v>1318386.6247265795</v>
+        <v>43754193</v>
       </c>
       <c r="I85">
-        <v>1318.3866247265796</v>
+        <v>43754.192999999999</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
         <v>69</v>
       </c>
       <c r="D86" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E86">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F86">
-        <v>1.5433531240086702E-3</v>
+        <v>1.4231595219999999E-2</v>
       </c>
       <c r="G86">
-        <v>1.5433531240086702</v>
+        <v>14.231595219999999</v>
       </c>
       <c r="H86">
-        <v>1543353.1240086702</v>
+        <v>14231595.219999999</v>
       </c>
       <c r="I86">
-        <v>1543.3531240086702</v>
+        <v>14231.595219999999</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
         <v>69</v>
       </c>
       <c r="D87" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E87">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F87">
-        <v>4.6608691914721154E-2</v>
+        <v>2.41969119E-5</v>
       </c>
       <c r="G87">
-        <v>46.608691914721163</v>
+        <v>2.41969119E-2</v>
       </c>
       <c r="H87">
-        <v>46608691.914721161</v>
+        <v>24196.911899999999</v>
       </c>
       <c r="I87">
-        <v>46608.691914721159</v>
+        <v>24.1969119</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
         <v>69</v>
       </c>
       <c r="D88" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E88">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F88">
-        <v>3.3233281929715574E-4</v>
+        <v>7.8576586599999991E-3</v>
       </c>
       <c r="G88">
-        <v>0.33233281929715575</v>
+        <v>7.8576586600000002</v>
       </c>
       <c r="H88">
-        <v>332332.81929715577</v>
+        <v>7857658.6600000001</v>
       </c>
       <c r="I88">
-        <v>332.33281929715577</v>
+        <v>7857.6586600000001</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="B89" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C89" t="s">
         <v>69</v>
       </c>
       <c r="D89" t="s">
-        <v>75</v>
-      </c>
-      <c r="E89">
-        <v>2017</v>
+        <v>79</v>
+      </c>
+      <c r="E89" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F89">
-        <v>6.0407087080287919E-4</v>
+        <v>2.550461E-2</v>
       </c>
       <c r="G89">
-        <v>0.60407087080287925</v>
+        <v>25.50461</v>
       </c>
       <c r="H89">
-        <v>604070.87080287922</v>
+        <v>25504610</v>
       </c>
       <c r="I89">
-        <v>604.0708708028792</v>
+        <v>25504.61</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
         <v>69</v>
       </c>
       <c r="D90" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E90">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F90">
-        <v>3.5070996893919994E-5</v>
+        <v>1.3678261079999999E-3</v>
       </c>
       <c r="G90">
-        <v>3.5070996893920001E-2</v>
+        <v>1.367826108</v>
       </c>
       <c r="H90">
-        <v>35070.996893919997</v>
+        <v>1367826.108</v>
       </c>
       <c r="I90">
-        <v>35.070996893919997</v>
+        <v>1367.826108</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E91">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F91">
-        <v>0.24402209999999999</v>
+        <v>4.1022579646965547E-2</v>
       </c>
       <c r="G91">
-        <v>244.02210000000002</v>
+        <v>41.022579646965546</v>
       </c>
       <c r="H91">
-        <v>244022100</v>
+        <v>41022579.646965548</v>
       </c>
       <c r="I91">
-        <v>244022.1</v>
+        <v>41022.579646965547</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C92" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E92">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F92">
-        <v>1.8091599999999999E-2</v>
+        <v>5.9223781774421372E-3</v>
       </c>
       <c r="G92">
-        <v>18.0916</v>
+        <v>5.9223781774421376</v>
       </c>
       <c r="H92">
-        <v>18091600</v>
+        <v>5922378.1774421381</v>
       </c>
       <c r="I92">
-        <v>18091.599999999999</v>
+        <v>5922.3781774421377</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C93" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E93">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F93">
-        <v>9.7124999999999989E-3</v>
+        <v>1.8882736257139997E-3</v>
       </c>
       <c r="G93">
-        <v>9.7125000000000004</v>
+        <v>1.8882736257139998</v>
       </c>
       <c r="H93">
-        <v>9712500</v>
+        <v>1888273.6257139998</v>
       </c>
       <c r="I93">
-        <v>9712.5</v>
+        <v>1888.2736257139998</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D94" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E94">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F94">
-        <v>0.1520705</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>152.07050000000001</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>152070500</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>152070.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B95" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B95" t="s">
+        <v>45</v>
       </c>
       <c r="C95" t="s">
         <v>69</v>
       </c>
       <c r="D95" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E95">
-        <v>0.33180609999999994</v>
+        <v>2017</v>
       </c>
       <c r="F95">
-        <v>0.33180609999999994</v>
+        <v>2.0954325888704502E-3</v>
       </c>
       <c r="G95">
-        <v>331.80609999999996</v>
+        <v>2.0954325888704504</v>
       </c>
       <c r="H95">
-        <v>331806100</v>
+        <v>2095432.5888704502</v>
       </c>
       <c r="I95">
-        <v>331806.09999999998</v>
+        <v>2095.4325888704502</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C96" t="s">
         <v>69</v>
@@ -3415,56 +3429,56 @@
         <v>73</v>
       </c>
       <c r="E96">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F96">
-        <v>5.0082E-3</v>
+        <v>7.3558139234650513E-4</v>
       </c>
       <c r="G96">
-        <v>5.0081999999999995</v>
+        <v>0.7355813923465051</v>
       </c>
       <c r="H96">
-        <v>5008200</v>
+        <v>735581.39234650519</v>
       </c>
       <c r="I96">
-        <v>5008.2</v>
+        <v>735.58139234650514</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s">
         <v>69</v>
       </c>
       <c r="D97" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E97">
         <v>2017</v>
       </c>
       <c r="F97">
-        <v>2.4216478550603188E-2</v>
+        <v>3.468662228910888E-3</v>
       </c>
       <c r="G97">
-        <v>24.216478550603188</v>
+        <v>3.4686622289108882</v>
       </c>
       <c r="H97">
-        <v>24216478.550603189</v>
+        <v>3468662.2289108881</v>
       </c>
       <c r="I97">
-        <v>24216.478550603188</v>
+        <v>3468.6622289108882</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C98" t="s">
         <v>69</v>
@@ -3476,53 +3490,53 @@
         <v>2017</v>
       </c>
       <c r="F98">
-        <v>7.9598524071984051E-3</v>
+        <v>2.7416433687319999E-6</v>
       </c>
       <c r="G98">
-        <v>7.9598524071984054</v>
+        <v>2.741643368732E-3</v>
       </c>
       <c r="H98">
-        <v>7959852.4071984049</v>
+        <v>2741.643368732</v>
       </c>
       <c r="I98">
-        <v>7959.8524071984048</v>
+        <v>2.7416433687319999</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C99" t="s">
         <v>69</v>
       </c>
       <c r="D99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E99">
         <v>2017</v>
       </c>
       <c r="F99">
-        <v>2.5169179714762718E-2</v>
+        <v>1.9665000000000001E-4</v>
       </c>
       <c r="G99">
-        <v>25.16917971476272</v>
+        <v>0.19665000000000002</v>
       </c>
       <c r="H99">
-        <v>25169179.714762717</v>
+        <v>196650</v>
       </c>
       <c r="I99">
-        <v>25169.179714762719</v>
+        <v>196.65</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C100" t="s">
         <v>69</v>
@@ -3534,111 +3548,111 @@
         <v>2017</v>
       </c>
       <c r="F100">
-        <v>5.021640915968524E-5</v>
+        <v>1.8345415316311399E-6</v>
       </c>
       <c r="G100">
-        <v>5.0216409159685241E-2</v>
+        <v>1.83454153163114E-3</v>
       </c>
       <c r="H100">
-        <v>50216.409159685245</v>
+        <v>1834.5415316311401</v>
       </c>
       <c r="I100">
-        <v>50.216409159685242</v>
+        <v>1.83454153163114</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
         <v>69</v>
       </c>
       <c r="D101" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E101">
         <v>2017</v>
       </c>
       <c r="F101">
-        <v>2.5312319999999997E-4</v>
+        <v>7.2777120333333391E-3</v>
       </c>
       <c r="G101">
-        <v>0.25312319999999999</v>
+        <v>7.2777120333333398</v>
       </c>
       <c r="H101">
-        <v>253123.20000000001</v>
+        <v>7277712.0333333397</v>
       </c>
       <c r="I101">
-        <v>253.1232</v>
+        <v>7277.7120333333396</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C102" t="s">
         <v>69</v>
       </c>
       <c r="D102" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E102">
         <v>2017</v>
       </c>
       <c r="F102">
-        <v>2.0100666666666672E-3</v>
+        <v>6.3120037000000053E-4</v>
       </c>
       <c r="G102">
-        <v>2.0100666666666673</v>
+        <v>0.63120037000000062</v>
       </c>
       <c r="H102">
-        <v>2010066.6666666672</v>
+        <v>631200.37000000058</v>
       </c>
       <c r="I102">
-        <v>2010.0666666666673</v>
+        <v>631.20037000000059</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C103" t="s">
         <v>69</v>
       </c>
       <c r="D103" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E103">
         <v>2017</v>
       </c>
       <c r="F103">
-        <v>2.4771999999999999E-4</v>
+        <v>2.0122635650000019E-3</v>
       </c>
       <c r="G103">
-        <v>0.24772</v>
+        <v>2.0122635650000018</v>
       </c>
       <c r="H103">
-        <v>247720</v>
+        <v>2012263.5650000018</v>
       </c>
       <c r="I103">
-        <v>247.72</v>
+        <v>2012.2635650000018</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C104" t="s">
         <v>69</v>
@@ -3650,198 +3664,198 @@
         <v>2017</v>
       </c>
       <c r="F104">
-        <v>1.239386E-6</v>
+        <v>7.0802650000000055E-4</v>
       </c>
       <c r="G104">
-        <v>1.2393860000000001E-3</v>
+        <v>0.70802650000000067</v>
       </c>
       <c r="H104">
-        <v>1239.3860000000002</v>
+        <v>708026.50000000058</v>
       </c>
       <c r="I104">
-        <v>1.2393860000000001</v>
+        <v>708.02650000000062</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C105" t="s">
         <v>69</v>
       </c>
       <c r="D105" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E105">
         <v>2017</v>
       </c>
       <c r="F105">
-        <v>3.1565080410000008E-3</v>
+        <v>-2.7018259657000027E-2</v>
       </c>
       <c r="G105">
-        <v>3.1565080410000008</v>
+        <v>-27.01825965700003</v>
       </c>
       <c r="H105">
-        <v>3156508.0410000011</v>
+        <v>-27018259.657000028</v>
       </c>
       <c r="I105">
-        <v>3156.508041000001</v>
+        <v>-27018.259657000028</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C106" t="s">
         <v>69</v>
       </c>
       <c r="D106" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E106">
         <v>2017</v>
       </c>
       <c r="F106">
-        <v>3.5131094167800024E-3</v>
+        <v>-3.9904219999999995E-3</v>
       </c>
       <c r="G106">
-        <v>3.5131094167800025</v>
+        <v>-3.9904220000000001</v>
       </c>
       <c r="H106">
-        <v>3513109.4167800024</v>
+        <v>-3990422</v>
       </c>
       <c r="I106">
-        <v>3513.1094167800024</v>
+        <v>-3990.422</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D107" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E107">
         <v>2017</v>
       </c>
       <c r="F107">
-        <v>0.12786694745398</v>
+        <v>0.76566115287461001</v>
       </c>
       <c r="G107">
-        <v>127.86694745398</v>
+        <v>765.66115287461002</v>
       </c>
       <c r="H107">
-        <v>127866947.45398</v>
+        <v>765661152.87461007</v>
       </c>
       <c r="I107">
-        <v>127866.94745398</v>
+        <v>765661.15287461004</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C108" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D108" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E108">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F108">
-        <v>0.225603</v>
+        <v>6.4495901799437497E-2</v>
       </c>
       <c r="G108">
-        <v>225.60300000000001</v>
+        <v>64.49590179943749</v>
       </c>
       <c r="H108">
-        <v>225603000</v>
+        <v>64495901.799437493</v>
       </c>
       <c r="I108">
-        <v>225603</v>
+        <v>64495.901799437495</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C109" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D109" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E109">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F109">
-        <v>0.14714099999999999</v>
+        <v>1.0181506769459999E-2</v>
       </c>
       <c r="G109">
-        <v>147.14099999999999</v>
+        <v>10.18150676946</v>
       </c>
       <c r="H109">
-        <v>147141000</v>
+        <v>10181506.76946</v>
       </c>
       <c r="I109">
-        <v>147141</v>
+        <v>10181.50676946</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D110" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E110">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F110">
-        <v>0.177618</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>177.61799999999999</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>177618000</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>177618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C111" t="s">
         <v>69</v>
@@ -3850,114 +3864,114 @@
         <v>74</v>
       </c>
       <c r="E111">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F111">
-        <v>0.37757999999999997</v>
+        <v>2.6648345762807453E-2</v>
       </c>
       <c r="G111">
-        <v>377.58</v>
+        <v>26.648345762807455</v>
       </c>
       <c r="H111">
-        <v>377580000</v>
+        <v>26648345.762807455</v>
       </c>
       <c r="I111">
-        <v>377580</v>
+        <v>26648.345762807454</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C112" t="s">
         <v>69</v>
       </c>
       <c r="D112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E112">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F112">
-        <v>9.9139999999999992E-3</v>
+        <v>2.5535662219111736E-2</v>
       </c>
       <c r="G112">
-        <v>9.9139999999999997</v>
+        <v>25.535662219111739</v>
       </c>
       <c r="H112">
-        <v>9914000</v>
+        <v>25535662.219111737</v>
       </c>
       <c r="I112">
-        <v>9914</v>
+        <v>25535.662219111739</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C113" t="s">
         <v>69</v>
       </c>
       <c r="D113" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E113">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F113">
-        <v>2.2012199999999999E-2</v>
+        <v>2.2546692279102401E-2</v>
       </c>
       <c r="G113">
-        <v>22.0122</v>
+        <v>22.546692279102402</v>
       </c>
       <c r="H113">
-        <v>22012200</v>
+        <v>22546692.2791024</v>
       </c>
       <c r="I113">
-        <v>22012.2</v>
+        <v>22546.692279102401</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C114" t="s">
         <v>69</v>
       </c>
       <c r="D114" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E114">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="F114">
-        <v>3.3258539999999996E-2</v>
+        <v>1.5049239842608149E-2</v>
       </c>
       <c r="G114">
-        <v>33.258540000000004</v>
+        <v>15.049239842608149</v>
       </c>
       <c r="H114">
-        <v>33258540</v>
+        <v>15049239.842608148</v>
       </c>
       <c r="I114">
-        <v>33258.54</v>
+        <v>15049.239842608149</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C115" t="s">
         <v>69</v>
@@ -3966,85 +3980,85 @@
         <v>73</v>
       </c>
       <c r="E115">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="F115">
-        <v>1.1879099999999999E-3</v>
+        <v>9.5402814636756407E-3</v>
       </c>
       <c r="G115">
-        <v>1.18791</v>
+        <v>9.5402814636756421</v>
       </c>
       <c r="H115">
-        <v>1187910</v>
+        <v>9540281.4636756405</v>
       </c>
       <c r="I115">
-        <v>1187.9100000000001</v>
+        <v>9540.2814636756411</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C116" t="s">
         <v>69</v>
       </c>
       <c r="D116" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E116">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="F116">
-        <v>1.37214E-3</v>
+        <v>4.0350425333918012E-3</v>
       </c>
       <c r="G116">
-        <v>1.3721400000000001</v>
+        <v>4.0350425333918016</v>
       </c>
       <c r="H116">
-        <v>1372140</v>
+        <v>4035042.5333918016</v>
       </c>
       <c r="I116">
-        <v>1372.14</v>
+        <v>4035.0425333918015</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C117" t="s">
         <v>69</v>
       </c>
       <c r="D117" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E117">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="F117">
-        <v>3.2593400000000002E-2</v>
+        <v>3.621085767662245E-3</v>
       </c>
       <c r="G117">
-        <v>32.593400000000003</v>
+        <v>3.6210857676622452</v>
       </c>
       <c r="H117">
-        <v>32593400</v>
+        <v>3621085.7676622448</v>
       </c>
       <c r="I117">
-        <v>32593.4</v>
+        <v>3621.085767662245</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C118" t="s">
         <v>69</v>
@@ -4053,27 +4067,27 @@
         <v>73</v>
       </c>
       <c r="E118">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="F118">
-        <v>6.1799999999999998E-5</v>
+        <v>1.9391780543981732E-3</v>
       </c>
       <c r="G118">
-        <v>6.1800000000000001E-2</v>
+        <v>1.9391780543981734</v>
       </c>
       <c r="H118">
-        <v>61800</v>
+        <v>1939178.0543981732</v>
       </c>
       <c r="I118">
-        <v>61.8</v>
+        <v>1939.1780543981733</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C119" t="s">
         <v>69</v>
@@ -4082,346 +4096,346 @@
         <v>73</v>
       </c>
       <c r="E119">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="F119">
-        <v>9.179E-5</v>
+        <v>1.6246175482218701E-3</v>
       </c>
       <c r="G119">
-        <v>9.179000000000001E-2</v>
+        <v>1.6246175482218703</v>
       </c>
       <c r="H119">
-        <v>91790</v>
+        <v>1624617.5482218703</v>
       </c>
       <c r="I119">
-        <v>91.79</v>
+        <v>1624.6175482218703</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C120" t="s">
         <v>69</v>
       </c>
       <c r="D120" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E120">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="F120">
-        <v>2.1308999999999998E-3</v>
+        <v>7.6874678536590279E-4</v>
       </c>
       <c r="G120">
-        <v>2.1309</v>
+        <v>0.76874678536590291</v>
       </c>
       <c r="H120">
-        <v>2130900</v>
+        <v>768746.78536590282</v>
       </c>
       <c r="I120">
-        <v>2130.9</v>
+        <v>768.74678536590284</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C121" t="s">
         <v>69</v>
       </c>
       <c r="D121" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E121">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="F121">
-        <v>1.6639669999999999E-2</v>
+        <v>2.1607049037199999E-4</v>
       </c>
       <c r="G121">
-        <v>16.639669999999999</v>
+        <v>0.21607049037199999</v>
       </c>
       <c r="H121">
-        <v>16639669.999999998</v>
+        <v>216070.490372</v>
       </c>
       <c r="I121">
-        <v>16639.669999999998</v>
+        <v>216.07049037199999</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C122" t="s">
         <v>69</v>
       </c>
       <c r="D122" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E122">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="F122">
-        <v>7.3443500000000004E-3</v>
+        <v>9.9226630563465607E-5</v>
       </c>
       <c r="G122">
-        <v>7.3443500000000004</v>
+        <v>9.9226630563465604E-2</v>
       </c>
       <c r="H122">
-        <v>7344350</v>
+        <v>99226.630563465602</v>
       </c>
       <c r="I122">
-        <v>7344.35</v>
+        <v>99.226630563465605</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C123" t="s">
         <v>69</v>
       </c>
       <c r="D123" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E123">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F123">
-        <v>4.3754192999999997E-2</v>
+        <v>-3.0366674806440001E-3</v>
       </c>
       <c r="G123">
-        <v>43.754193000000001</v>
+        <v>-3.0366674806440002</v>
       </c>
       <c r="H123">
-        <v>43754193</v>
+        <v>-3036667.4806440002</v>
       </c>
       <c r="I123">
-        <v>43754.192999999999</v>
+        <v>-3036.6674806440001</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C124" t="s">
         <v>69</v>
       </c>
       <c r="D124" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E124">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F124">
-        <v>1.4231595219999999E-2</v>
+        <v>-5.7600120794385742E-2</v>
       </c>
       <c r="G124">
-        <v>14.231595219999999</v>
+        <v>-57.600120794385745</v>
       </c>
       <c r="H124">
-        <v>14231595.219999999</v>
+        <v>-57600120.794385746</v>
       </c>
       <c r="I124">
-        <v>14231.595219999999</v>
+        <v>-57600.120794385744</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D125" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E125">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F125">
-        <v>2.41969119E-5</v>
+        <v>1.5101193799999999</v>
       </c>
       <c r="G125">
-        <v>2.41969119E-2</v>
+        <v>1510.1193799999999</v>
       </c>
       <c r="H125">
-        <v>24196.911899999999</v>
+        <v>1510119380</v>
       </c>
       <c r="I125">
-        <v>24.1969119</v>
+        <v>1510119.38</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C126" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D126" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E126">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F126">
-        <v>7.8576586599999991E-3</v>
+        <v>0.13551217237999999</v>
       </c>
       <c r="G126">
-        <v>7.8576586600000002</v>
+        <v>135.51217238000001</v>
       </c>
       <c r="H126">
-        <v>7857658.6600000001</v>
+        <v>135512172.38</v>
       </c>
       <c r="I126">
-        <v>7857.6586600000001</v>
+        <v>135512.17238</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
       </c>
       <c r="C127" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D127" t="s">
-        <v>79</v>
-      </c>
-      <c r="E127" t="e">
-        <v>#N/A</v>
+        <v>70</v>
+      </c>
+      <c r="E127">
+        <v>2010</v>
       </c>
       <c r="F127">
-        <v>2.550461E-2</v>
+        <v>6.5052799999999994E-2</v>
       </c>
       <c r="G127">
-        <v>25.50461</v>
+        <v>65.052800000000005</v>
       </c>
       <c r="H127">
-        <v>25504610</v>
+        <v>65052800</v>
       </c>
       <c r="I127">
-        <v>25504.61</v>
+        <v>65052.800000000003</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C128" t="s">
         <v>69</v>
       </c>
       <c r="D128" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E128">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F128">
-        <v>1.3678261079999999E-3</v>
+        <v>0.22703351999999999</v>
       </c>
       <c r="G128">
-        <v>1.367826108</v>
+        <v>227.03351999999998</v>
       </c>
       <c r="H128">
-        <v>1367826.108</v>
+        <v>227033520</v>
       </c>
       <c r="I128">
-        <v>1367.826108</v>
+        <v>227033.52</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C129" t="s">
         <v>69</v>
       </c>
       <c r="D129" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E129">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="F129">
-        <v>2.0954325888704502E-3</v>
+        <v>2.7674000000000002E-3</v>
       </c>
       <c r="G129">
-        <v>2.0954325888704504</v>
+        <v>2.7674000000000003</v>
       </c>
       <c r="H129">
-        <v>2095432.5888704502</v>
+        <v>2767400</v>
       </c>
       <c r="I129">
-        <v>2095.4325888704502</v>
+        <v>2767.4</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C130" t="s">
         <v>69</v>
       </c>
       <c r="D130" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E130">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="F130">
-        <v>7.3558139234650513E-4</v>
+        <v>7.1367869999999986E-2</v>
       </c>
       <c r="G130">
-        <v>0.7355813923465051</v>
+        <v>71.367869999999996</v>
       </c>
       <c r="H130">
-        <v>735581.39234650519</v>
+        <v>71367870</v>
       </c>
       <c r="I130">
-        <v>735.58139234650514</v>
+        <v>71367.87</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C131" t="s">
         <v>69</v>
@@ -4430,27 +4444,27 @@
         <v>74</v>
       </c>
       <c r="E131">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="F131">
-        <v>3.468662228910888E-3</v>
+        <v>8.10805E-2</v>
       </c>
       <c r="G131">
-        <v>3.4686622289108882</v>
+        <v>81.080500000000001</v>
       </c>
       <c r="H131">
-        <v>3468662.2289108881</v>
+        <v>81080500</v>
       </c>
       <c r="I131">
-        <v>3468.6622289108882</v>
+        <v>81080.5</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C132" t="s">
         <v>69</v>
@@ -4459,317 +4473,317 @@
         <v>73</v>
       </c>
       <c r="E132">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="F132">
-        <v>2.7416433687319999E-6</v>
+        <v>7.9160900000000006E-3</v>
       </c>
       <c r="G132">
-        <v>2.741643368732E-3</v>
+        <v>7.9160900000000005</v>
       </c>
       <c r="H132">
-        <v>2741.643368732</v>
+        <v>7916090</v>
       </c>
       <c r="I132">
-        <v>2.7416433687319999</v>
+        <v>7916.09</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E133">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F133">
-        <v>1.9665000000000001E-4</v>
+        <v>0.50812000000000002</v>
       </c>
       <c r="G133">
-        <v>0.19665000000000002</v>
+        <v>508.12</v>
       </c>
       <c r="H133">
-        <v>196650</v>
+        <v>508120000</v>
       </c>
       <c r="I133">
-        <v>196.65</v>
+        <v>508120</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C134" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D134" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E134">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F134">
-        <v>1.8345415316311399E-6</v>
+        <v>4.1062000000000001E-2</v>
       </c>
       <c r="G134">
-        <v>1.83454153163114E-3</v>
+        <v>41.061999999999998</v>
       </c>
       <c r="H134">
-        <v>1834.5415316311401</v>
+        <v>41062000</v>
       </c>
       <c r="I134">
-        <v>1.83454153163114</v>
+        <v>41062</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C135" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D135" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E135">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F135">
-        <v>7.2777120333333391E-3</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>7.2777120333333398</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>7277712.0333333397</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>7277.7120333333396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C136" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D136" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E136">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F136">
-        <v>6.3120037000000053E-4</v>
+        <v>9.7116999999999995E-2</v>
       </c>
       <c r="G136">
-        <v>0.63120037000000062</v>
+        <v>97.117000000000004</v>
       </c>
       <c r="H136">
-        <v>631200.37000000058</v>
+        <v>97117000</v>
       </c>
       <c r="I136">
-        <v>631.20037000000059</v>
+        <v>97117</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C137" t="s">
         <v>69</v>
       </c>
       <c r="D137" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E137">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F137">
-        <v>2.0122635650000019E-3</v>
+        <v>1.6827999999999999E-2</v>
       </c>
       <c r="G137">
-        <v>2.0122635650000018</v>
+        <v>16.827999999999999</v>
       </c>
       <c r="H137">
-        <v>2012263.5650000018</v>
+        <v>16828000</v>
       </c>
       <c r="I137">
-        <v>2012.2635650000018</v>
+        <v>16828</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
         <v>69</v>
       </c>
       <c r="D138" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E138">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F138">
-        <v>7.0802650000000055E-4</v>
+        <v>2.1029999999999998E-3</v>
       </c>
       <c r="G138">
-        <v>0.70802650000000067</v>
+        <v>2.1030000000000002</v>
       </c>
       <c r="H138">
-        <v>708026.50000000058</v>
+        <v>2103000</v>
       </c>
       <c r="I138">
-        <v>708.02650000000062</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C139" t="s">
         <v>69</v>
       </c>
       <c r="D139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E139">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F139">
-        <v>2.6648345762807453E-2</v>
+        <v>3.4640999999999998E-2</v>
       </c>
       <c r="G139">
-        <v>26.648345762807455</v>
+        <v>34.640999999999998</v>
       </c>
       <c r="H139">
-        <v>26648345.762807455</v>
+        <v>34641000</v>
       </c>
       <c r="I139">
-        <v>26648.345762807454</v>
+        <v>34641</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C140" t="s">
         <v>69</v>
       </c>
       <c r="D140" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E140">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F140">
-        <v>2.5535662219111736E-2</v>
+        <v>4.9658000000000001E-2</v>
       </c>
       <c r="G140">
-        <v>25.535662219111739</v>
+        <v>49.658000000000001</v>
       </c>
       <c r="H140">
-        <v>25535662.219111737</v>
+        <v>49658000</v>
       </c>
       <c r="I140">
-        <v>25535.662219111739</v>
+        <v>49658</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C141" t="s">
         <v>69</v>
       </c>
       <c r="D141" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E141">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F141">
-        <v>2.2546692279102401E-2</v>
+        <v>1.1119999999999999E-3</v>
       </c>
       <c r="G141">
-        <v>22.546692279102402</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="H141">
-        <v>22546692.2791024</v>
+        <v>1112000</v>
       </c>
       <c r="I141">
-        <v>22546.692279102401</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C142" t="s">
         <v>69</v>
       </c>
       <c r="D142" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E142">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F142">
-        <v>1.5049239842608149E-2</v>
+        <v>1.761E-3</v>
       </c>
       <c r="G142">
-        <v>15.049239842608149</v>
+        <v>1.7609999999999999</v>
       </c>
       <c r="H142">
-        <v>15049239.842608148</v>
+        <v>1761000</v>
       </c>
       <c r="I142">
-        <v>15049.239842608149</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C143" t="s">
         <v>69</v>
@@ -4778,259 +4792,259 @@
         <v>73</v>
       </c>
       <c r="E143">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F143">
-        <v>9.5402814636756407E-3</v>
+        <v>1.0085999999999999E-2</v>
       </c>
       <c r="G143">
-        <v>9.5402814636756421</v>
+        <v>10.086</v>
       </c>
       <c r="H143">
-        <v>9540281.4636756405</v>
+        <v>10086000</v>
       </c>
       <c r="I143">
-        <v>9540.2814636756411</v>
+        <v>10086</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
         <v>69</v>
       </c>
       <c r="D144" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E144">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F144">
-        <v>4.0350425333918012E-3</v>
+        <v>0.214226</v>
       </c>
       <c r="G144">
-        <v>4.0350425333918016</v>
+        <v>214.226</v>
       </c>
       <c r="H144">
-        <v>4035042.5333918016</v>
+        <v>214226000</v>
       </c>
       <c r="I144">
-        <v>4035.0425333918015</v>
+        <v>214226</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C145" t="s">
         <v>69</v>
       </c>
       <c r="D145" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E145">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F145">
-        <v>3.621085767662245E-3</v>
+        <v>0.32710600000000001</v>
       </c>
       <c r="G145">
-        <v>3.6210857676622452</v>
+        <v>327.10599999999999</v>
       </c>
       <c r="H145">
-        <v>3621085.7676622448</v>
+        <v>327106000</v>
       </c>
       <c r="I145">
-        <v>3621.085767662245</v>
+        <v>327106</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C146" t="s">
         <v>69</v>
       </c>
       <c r="D146" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E146">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F146">
-        <v>1.9391780543981732E-3</v>
+        <v>0.20705000000000001</v>
       </c>
       <c r="G146">
-        <v>1.9391780543981734</v>
+        <v>207.05</v>
       </c>
       <c r="H146">
-        <v>1939178.0543981732</v>
+        <v>207050000</v>
       </c>
       <c r="I146">
-        <v>1939.1780543981733</v>
+        <v>207050</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C147" t="s">
         <v>69</v>
       </c>
       <c r="D147" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E147">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F147">
-        <v>1.6246175482218701E-3</v>
+        <v>-1.6327000000000001E-2</v>
       </c>
       <c r="G147">
-        <v>1.6246175482218703</v>
+        <v>-16.327000000000002</v>
       </c>
       <c r="H147">
-        <v>1624617.5482218703</v>
+        <v>-16327000</v>
       </c>
       <c r="I147">
-        <v>1624.6175482218703</v>
+        <v>-16327</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C148" t="s">
         <v>69</v>
       </c>
       <c r="D148" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E148">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F148">
-        <v>7.6874678536590279E-4</v>
+        <v>-3.7075999999999998E-2</v>
       </c>
       <c r="G148">
-        <v>0.76874678536590291</v>
+        <v>-37.076000000000001</v>
       </c>
       <c r="H148">
-        <v>768746.78536590282</v>
+        <v>-37076000</v>
       </c>
       <c r="I148">
-        <v>768.74678536590284</v>
+        <v>-37076</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C149" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D149" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E149">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="F149">
-        <v>2.1607049037199999E-4</v>
+        <v>0.21891363</v>
       </c>
       <c r="G149">
-        <v>0.21607049037199999</v>
+        <v>218.91363000000001</v>
       </c>
       <c r="H149">
-        <v>216070.490372</v>
+        <v>218913630</v>
       </c>
       <c r="I149">
-        <v>216.07049037199999</v>
+        <v>218913.63</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C150" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D150" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E150">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="F150">
-        <v>9.9226630563465607E-5</v>
+        <v>1.8166338399999999E-2</v>
       </c>
       <c r="G150">
-        <v>9.9226630563465604E-2</v>
+        <v>18.166338400000001</v>
       </c>
       <c r="H150">
-        <v>99226.630563465602</v>
+        <v>18166338.400000002</v>
       </c>
       <c r="I150">
-        <v>99.226630563465605</v>
+        <v>18166.338400000001</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C151" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D151" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E151">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F151">
-        <v>0.22703351999999999</v>
+        <v>3.4885039999999999E-2</v>
       </c>
       <c r="G151">
-        <v>227.03351999999998</v>
+        <v>34.885040000000004</v>
       </c>
       <c r="H151">
-        <v>227033520</v>
+        <v>34885040</v>
       </c>
       <c r="I151">
-        <v>227033.52</v>
+        <v>34885.040000000001</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C152" t="s">
         <v>69</v>
@@ -5039,114 +5053,114 @@
         <v>73</v>
       </c>
       <c r="E152">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F152">
-        <v>2.7674000000000002E-3</v>
+        <v>9.8558000000000001E-4</v>
       </c>
       <c r="G152">
-        <v>2.7674000000000003</v>
+        <v>0.98558000000000001</v>
       </c>
       <c r="H152">
-        <v>2767400</v>
+        <v>985580</v>
       </c>
       <c r="I152">
-        <v>2767.4</v>
+        <v>985.58</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
         <v>69</v>
       </c>
       <c r="D153" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E153">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F153">
-        <v>7.1367869999999986E-2</v>
+        <v>1.93348E-3</v>
       </c>
       <c r="G153">
-        <v>71.367869999999996</v>
+        <v>1.9334800000000001</v>
       </c>
       <c r="H153">
-        <v>71367870</v>
+        <v>1933480</v>
       </c>
       <c r="I153">
-        <v>71367.87</v>
+        <v>1933.48</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
         <v>69</v>
       </c>
       <c r="D154" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E154">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F154">
-        <v>8.10805E-2</v>
+        <v>1.8773499999999999E-3</v>
       </c>
       <c r="G154">
-        <v>81.080500000000001</v>
+        <v>1.8773499999999999</v>
       </c>
       <c r="H154">
-        <v>81080500</v>
+        <v>1877350</v>
       </c>
       <c r="I154">
-        <v>81080.5</v>
+        <v>1877.35</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C155" t="s">
         <v>69</v>
       </c>
       <c r="D155" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E155">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F155">
-        <v>7.9160900000000006E-3</v>
+        <v>1.094382E-2</v>
       </c>
       <c r="G155">
-        <v>7.9160900000000005</v>
+        <v>10.943820000000001</v>
       </c>
       <c r="H155">
-        <v>7916090</v>
+        <v>10943820</v>
       </c>
       <c r="I155">
-        <v>7916.09</v>
+        <v>10943.82</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C156" t="s">
         <v>69</v>
@@ -5155,288 +5169,288 @@
         <v>73</v>
       </c>
       <c r="E156">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F156">
-        <v>1.6827999999999999E-2</v>
+        <v>3.5070000000000001E-5</v>
       </c>
       <c r="G156">
-        <v>16.827999999999999</v>
+        <v>3.5070000000000004E-2</v>
       </c>
       <c r="H156">
-        <v>16828000</v>
+        <v>35070</v>
       </c>
       <c r="I156">
-        <v>16828</v>
+        <v>35.07</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="B157" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C157" t="s">
         <v>69</v>
       </c>
       <c r="D157" t="s">
-        <v>73</v>
-      </c>
-      <c r="E157">
-        <v>2012</v>
+        <v>79</v>
+      </c>
+      <c r="E157" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F157">
-        <v>2.1029999999999998E-3</v>
+        <v>-0.26045673999999996</v>
       </c>
       <c r="G157">
-        <v>2.1030000000000002</v>
+        <v>-260.45673999999997</v>
       </c>
       <c r="H157">
-        <v>2103000</v>
+        <v>-260456740</v>
       </c>
       <c r="I157">
-        <v>2103</v>
+        <v>-260456.74</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C158" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D158" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E158">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F158">
-        <v>3.4640999999999998E-2</v>
+        <v>0.46778177999999998</v>
       </c>
       <c r="G158">
-        <v>34.640999999999998</v>
+        <v>467.78178000000003</v>
       </c>
       <c r="H158">
-        <v>34641000</v>
+        <v>467781780</v>
       </c>
       <c r="I158">
-        <v>34641</v>
+        <v>467781.78</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C159" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D159" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E159">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F159">
-        <v>4.9658000000000001E-2</v>
+        <v>4.3321829999999999E-2</v>
       </c>
       <c r="G159">
-        <v>49.658000000000001</v>
+        <v>43.321830000000006</v>
       </c>
       <c r="H159">
-        <v>49658000</v>
+        <v>43321830</v>
       </c>
       <c r="I159">
-        <v>49658</v>
+        <v>43321.83</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C160" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D160" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E160">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F160">
-        <v>1.1119999999999999E-3</v>
+        <v>2.4374619999999996E-2</v>
       </c>
       <c r="G160">
-        <v>1.1120000000000001</v>
+        <v>24.37462</v>
       </c>
       <c r="H160">
-        <v>1112000</v>
+        <v>24374620</v>
       </c>
       <c r="I160">
-        <v>1112</v>
+        <v>24374.62</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B161" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C161" t="s">
         <v>69</v>
       </c>
       <c r="D161" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E161">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F161">
-        <v>1.761E-3</v>
+        <v>3.8406099999999999E-2</v>
       </c>
       <c r="G161">
-        <v>1.7609999999999999</v>
+        <v>38.406100000000002</v>
       </c>
       <c r="H161">
-        <v>1761000</v>
+        <v>38406100</v>
       </c>
       <c r="I161">
-        <v>1761</v>
+        <v>38406.1</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C162" t="s">
         <v>69</v>
       </c>
       <c r="D162" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E162">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F162">
-        <v>1.0085999999999999E-2</v>
+        <v>1.5166870000000001E-2</v>
       </c>
       <c r="G162">
-        <v>10.086</v>
+        <v>15.166870000000001</v>
       </c>
       <c r="H162">
-        <v>10086000</v>
+        <v>15166870</v>
       </c>
       <c r="I162">
-        <v>10086</v>
+        <v>15166.87</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C163" t="s">
         <v>69</v>
       </c>
       <c r="D163" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E163">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F163">
-        <v>0.214226</v>
+        <v>1.6284000000000001E-4</v>
       </c>
       <c r="G163">
-        <v>214.226</v>
+        <v>0.16284000000000001</v>
       </c>
       <c r="H163">
-        <v>214226000</v>
+        <v>162840</v>
       </c>
       <c r="I163">
-        <v>214226</v>
+        <v>162.84</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C164" t="s">
         <v>69</v>
       </c>
       <c r="D164" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E164">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F164">
-        <v>0.32710600000000001</v>
+        <v>1.5556889999999999E-2</v>
       </c>
       <c r="G164">
-        <v>327.10599999999999</v>
+        <v>15.556889999999999</v>
       </c>
       <c r="H164">
-        <v>327106000</v>
+        <v>15556890</v>
       </c>
       <c r="I164">
-        <v>327106</v>
+        <v>15556.89</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="B165" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C165" t="s">
         <v>69</v>
       </c>
       <c r="D165" t="s">
-        <v>75</v>
-      </c>
-      <c r="E165">
-        <v>2012</v>
+        <v>79</v>
+      </c>
+      <c r="E165" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F165">
-        <v>0.20705000000000001</v>
+        <v>3.2322469999999999E-2</v>
       </c>
       <c r="G165">
-        <v>207.05</v>
+        <v>32.322470000000003</v>
       </c>
       <c r="H165">
-        <v>207050000</v>
+        <v>32322470</v>
       </c>
       <c r="I165">
-        <v>207050</v>
+        <v>32322.47</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C166" t="s">
         <v>69</v>
@@ -5445,201 +5459,201 @@
         <v>73</v>
       </c>
       <c r="E166">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F166">
-        <v>9.8558000000000001E-4</v>
+        <v>1.1163900000000001E-3</v>
       </c>
       <c r="G166">
-        <v>0.98558000000000001</v>
+        <v>1.1163900000000002</v>
       </c>
       <c r="H166">
-        <v>985580</v>
+        <v>1116390</v>
       </c>
       <c r="I166">
-        <v>985.58</v>
+        <v>1116.3900000000001</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B167" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C167" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D167" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E167">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="F167">
-        <v>1.93348E-3</v>
+        <v>3.8412329811494374E-2</v>
       </c>
       <c r="G167">
-        <v>1.9334800000000001</v>
+        <v>38.412329811494374</v>
       </c>
       <c r="H167">
-        <v>1933480</v>
+        <v>38412329.811494373</v>
       </c>
       <c r="I167">
-        <v>1933.48</v>
+        <v>38412.329811494375</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B168" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C168" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D168" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E168">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="F168">
-        <v>1.8773499999999999E-3</v>
+        <v>8.6318824583649853E-3</v>
       </c>
       <c r="G168">
-        <v>1.8773499999999999</v>
+        <v>8.631882458364986</v>
       </c>
       <c r="H168">
-        <v>1877350</v>
+        <v>8631882.4583649859</v>
       </c>
       <c r="I168">
-        <v>1877.35</v>
+        <v>8631.8824583649857</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B169" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C169" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D169" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E169">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="F169">
-        <v>1.094382E-2</v>
+        <v>1.1994813454994804E-3</v>
       </c>
       <c r="G169">
-        <v>10.943820000000001</v>
+        <v>1.1994813454994806</v>
       </c>
       <c r="H169">
-        <v>10943820</v>
+        <v>1199481.3454994806</v>
       </c>
       <c r="I169">
-        <v>10943.82</v>
+        <v>1199.4813454994805</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B170" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C170" t="s">
         <v>69</v>
       </c>
       <c r="D170" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E170">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="F170">
-        <v>3.5070000000000001E-5</v>
+        <v>2.3290432465899995E-3</v>
       </c>
       <c r="G170">
-        <v>3.5070000000000004E-2</v>
+        <v>2.3290432465899999</v>
       </c>
       <c r="H170">
-        <v>35070</v>
+        <v>2329043.2465899996</v>
       </c>
       <c r="I170">
-        <v>35.07</v>
+        <v>2329.0432465899999</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B171" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C171" t="s">
         <v>69</v>
       </c>
       <c r="D171" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E171">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F171">
-        <v>3.8406099999999999E-2</v>
+        <v>4.3016057454370001E-4</v>
       </c>
       <c r="G171">
-        <v>38.406100000000002</v>
+        <v>0.43016057454370005</v>
       </c>
       <c r="H171">
-        <v>38406100</v>
+        <v>430160.57454370003</v>
       </c>
       <c r="I171">
-        <v>38406.1</v>
+        <v>430.16057454370002</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B172" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C172" t="s">
         <v>69</v>
       </c>
       <c r="D172" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E172">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F172">
-        <v>1.5166870000000001E-2</v>
+        <v>1.6216996910261999E-3</v>
       </c>
       <c r="G172">
-        <v>15.166870000000001</v>
+        <v>1.6216996910262</v>
       </c>
       <c r="H172">
-        <v>15166870</v>
+        <v>1621699.6910262001</v>
       </c>
       <c r="I172">
-        <v>15166.87</v>
+        <v>1621.6996910262001</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B173" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C173" t="s">
         <v>69</v>
@@ -5648,106 +5662,106 @@
         <v>73</v>
       </c>
       <c r="E173">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F173">
-        <v>1.6284000000000001E-4</v>
+        <v>3.9582400311999994E-6</v>
       </c>
       <c r="G173">
-        <v>0.16284000000000001</v>
+        <v>3.9582400312000001E-3</v>
       </c>
       <c r="H173">
-        <v>162840</v>
+        <v>3958.2400312</v>
       </c>
       <c r="I173">
-        <v>162.84</v>
+        <v>3.9582400311999999</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C174" t="s">
         <v>69</v>
       </c>
       <c r="D174" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E174">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F174">
-        <v>1.5556889999999999E-2</v>
+        <v>8.3896303329999991E-5</v>
       </c>
       <c r="G174">
-        <v>15.556889999999999</v>
+        <v>8.3896303329999991E-2</v>
       </c>
       <c r="H174">
-        <v>15556890</v>
+        <v>83896.303329999995</v>
       </c>
       <c r="I174">
-        <v>15556.89</v>
+        <v>83.896303329999995</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>17</v>
-      </c>
-      <c r="B175" t="e">
-        <v>#N/A</v>
+        <v>24</v>
+      </c>
+      <c r="B175" t="s">
+        <v>51</v>
       </c>
       <c r="C175" t="s">
         <v>69</v>
       </c>
       <c r="D175" t="s">
-        <v>79</v>
-      </c>
-      <c r="E175" t="e">
-        <v>#N/A</v>
+        <v>73</v>
+      </c>
+      <c r="E175">
+        <v>2017</v>
       </c>
       <c r="F175">
-        <v>3.2322469999999999E-2</v>
+        <v>9.1666666699999994E-8</v>
       </c>
       <c r="G175">
-        <v>32.322470000000003</v>
+        <v>9.1666666700000003E-5</v>
       </c>
       <c r="H175">
-        <v>32322470</v>
+        <v>91.666666699999993</v>
       </c>
       <c r="I175">
-        <v>32322.47</v>
+        <v>9.1666666699999996E-2</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B176" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C176" t="s">
         <v>69</v>
       </c>
       <c r="D176" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E176">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F176">
-        <v>1.1163900000000001E-3</v>
+        <v>2.0462121533333347E-3</v>
       </c>
       <c r="G176">
-        <v>1.1163900000000002</v>
+        <v>2.0462121533333351</v>
       </c>
       <c r="H176">
-        <v>1116390</v>
+        <v>2046212.153333335</v>
       </c>
       <c r="I176">
-        <v>1116.3900000000001</v>
+        <v>2046.212153333335</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
@@ -5755,28 +5769,28 @@
         <v>24</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C177" t="s">
         <v>69</v>
       </c>
       <c r="D177" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E177">
         <v>2017</v>
       </c>
       <c r="F177">
-        <v>2.3290432465899995E-3</v>
+        <v>2.127024233333335E-4</v>
       </c>
       <c r="G177">
-        <v>2.3290432465899999</v>
+        <v>0.21270242333333353</v>
       </c>
       <c r="H177">
-        <v>2329043.2465899996</v>
+        <v>212702.42333333351</v>
       </c>
       <c r="I177">
-        <v>2329.0432465899999</v>
+        <v>212.70242333333351</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
@@ -5784,28 +5798,28 @@
         <v>24</v>
       </c>
       <c r="B178" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C178" t="s">
         <v>69</v>
       </c>
       <c r="D178" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E178">
         <v>2017</v>
       </c>
       <c r="F178">
-        <v>4.3016057454370001E-4</v>
+        <v>1.9156781428572302E-5</v>
       </c>
       <c r="G178">
-        <v>0.43016057454370005</v>
+        <v>1.91567814285723E-2</v>
       </c>
       <c r="H178">
-        <v>430160.57454370003</v>
+        <v>19156.781428572303</v>
       </c>
       <c r="I178">
-        <v>430.16057454370002</v>
+        <v>19.156781428572302</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
@@ -5813,28 +5827,28 @@
         <v>24</v>
       </c>
       <c r="B179" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C179" t="s">
         <v>69</v>
       </c>
       <c r="D179" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E179">
         <v>2017</v>
       </c>
       <c r="F179">
-        <v>1.6216996910261999E-3</v>
+        <v>2.0337219783036213E-3</v>
       </c>
       <c r="G179">
-        <v>1.6216996910262</v>
+        <v>2.0337219783036216</v>
       </c>
       <c r="H179">
-        <v>1621699.6910262001</v>
+        <v>2033721.9783036215</v>
       </c>
       <c r="I179">
-        <v>1621.6996910262001</v>
+        <v>2033.7219783036214</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
@@ -5842,28 +5856,28 @@
         <v>24</v>
       </c>
       <c r="B180" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C180" t="s">
         <v>69</v>
       </c>
       <c r="D180" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E180">
         <v>2017</v>
       </c>
       <c r="F180">
-        <v>3.9582400311999994E-6</v>
+        <v>9.4741333333332992E-7</v>
       </c>
       <c r="G180">
-        <v>3.9582400312000001E-3</v>
+        <v>9.4741333333333004E-4</v>
       </c>
       <c r="H180">
-        <v>3958.2400312</v>
+        <v>947.41333333333</v>
       </c>
       <c r="I180">
-        <v>3.9582400311999999</v>
+        <v>0.94741333333333</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
@@ -5871,28 +5885,28 @@
         <v>24</v>
       </c>
       <c r="B181" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C181" t="s">
         <v>69</v>
       </c>
       <c r="D181" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E181">
         <v>2017</v>
       </c>
       <c r="F181">
-        <v>8.3896303329999991E-5</v>
+        <v>-2.907708076419336E-2</v>
       </c>
       <c r="G181">
-        <v>8.3896303329999991E-2</v>
+        <v>-29.077080764193362</v>
       </c>
       <c r="H181">
-        <v>83896.303329999995</v>
+        <v>-29077080.76419336</v>
       </c>
       <c r="I181">
-        <v>83.896303329999995</v>
+        <v>-29077.080764193361</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
@@ -5900,173 +5914,173 @@
         <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C182" t="s">
         <v>69</v>
       </c>
       <c r="D182" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E182">
         <v>2017</v>
       </c>
       <c r="F182">
-        <v>9.1666666699999994E-8</v>
+        <v>-2.3699999999999999E-4</v>
       </c>
       <c r="G182">
-        <v>9.1666666700000003E-5</v>
+        <v>-0.23700000000000002</v>
       </c>
       <c r="H182">
-        <v>91.666666699999993</v>
+        <v>-237000</v>
       </c>
       <c r="I182">
-        <v>9.1666666699999996E-2</v>
+        <v>-237</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C183" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D183" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E183">
         <v>2017</v>
       </c>
       <c r="F183">
-        <v>2.0462121533333347E-3</v>
+        <v>1.6998772875622659</v>
       </c>
       <c r="G183">
-        <v>2.0462121533333351</v>
+        <v>1699.877287562266</v>
       </c>
       <c r="H183">
-        <v>2046212.153333335</v>
+        <v>1699877287.5622659</v>
       </c>
       <c r="I183">
-        <v>2046.212153333335</v>
+        <v>1699877.287562266</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B184" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C184" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D184" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E184">
         <v>2017</v>
       </c>
       <c r="F184">
-        <v>2.127024233333335E-4</v>
+        <v>0.23320211648754491</v>
       </c>
       <c r="G184">
-        <v>0.21270242333333353</v>
+        <v>233.20211648754494</v>
       </c>
       <c r="H184">
-        <v>212702.42333333351</v>
+        <v>233202116.48754492</v>
       </c>
       <c r="I184">
-        <v>212.70242333333351</v>
+        <v>233202.11648754493</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B185" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C185" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D185" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E185">
         <v>2017</v>
       </c>
       <c r="F185">
-        <v>1.9156781428572302E-5</v>
+        <v>9.4485899057828795E-2</v>
       </c>
       <c r="G185">
-        <v>1.91567814285723E-2</v>
+        <v>94.485899057828803</v>
       </c>
       <c r="H185">
-        <v>19156.781428572303</v>
+        <v>94485899.057828814</v>
       </c>
       <c r="I185">
-        <v>19.156781428572302</v>
+        <v>94485.899057828807</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B186" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C186" t="s">
         <v>69</v>
       </c>
       <c r="D186" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E186">
         <v>2017</v>
       </c>
       <c r="F186">
-        <v>2.0337219783036213E-3</v>
+        <v>4.9859336573267271E-2</v>
       </c>
       <c r="G186">
-        <v>2.0337219783036216</v>
+        <v>49.859336573267278</v>
       </c>
       <c r="H186">
-        <v>2033721.9783036215</v>
+        <v>49859336.573267274</v>
       </c>
       <c r="I186">
-        <v>2033.7219783036214</v>
+        <v>49859.336573267276</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B187" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C187" t="s">
         <v>69</v>
       </c>
       <c r="D187" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E187">
         <v>2017</v>
       </c>
       <c r="F187">
-        <v>9.4741333333332992E-7</v>
+        <v>1.4568409441756608E-2</v>
       </c>
       <c r="G187">
-        <v>9.4741333333333004E-4</v>
+        <v>14.568409441756609</v>
       </c>
       <c r="H187">
-        <v>947.41333333333</v>
+        <v>14568409.441756608</v>
       </c>
       <c r="I187">
-        <v>0.94741333333333</v>
+        <v>14568.409441756608</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
@@ -6074,28 +6088,28 @@
         <v>25</v>
       </c>
       <c r="B188" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C188" t="s">
         <v>69</v>
       </c>
       <c r="D188" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E188">
         <v>2017</v>
       </c>
       <c r="F188">
-        <v>4.9859336573267271E-2</v>
+        <v>5.7542564509100954E-4</v>
       </c>
       <c r="G188">
-        <v>49.859336573267278</v>
+        <v>0.57542564509100957</v>
       </c>
       <c r="H188">
-        <v>49859336.573267274</v>
+        <v>575425.64509100956</v>
       </c>
       <c r="I188">
-        <v>49859.336573267276</v>
+        <v>575.42564509100953</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
@@ -6103,28 +6117,28 @@
         <v>25</v>
       </c>
       <c r="B189" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C189" t="s">
         <v>69</v>
       </c>
       <c r="D189" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E189">
         <v>2017</v>
       </c>
       <c r="F189">
-        <v>1.4568409441756608E-2</v>
+        <v>6.2062036495516108E-2</v>
       </c>
       <c r="G189">
-        <v>14.568409441756609</v>
+        <v>62.062036495516118</v>
       </c>
       <c r="H189">
-        <v>14568409.441756608</v>
+        <v>62062036.495516114</v>
       </c>
       <c r="I189">
-        <v>14568.409441756608</v>
+        <v>62062.036495516113</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
@@ -6132,7 +6146,7 @@
         <v>25</v>
       </c>
       <c r="B190" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C190" t="s">
         <v>69</v>
@@ -6144,16 +6158,16 @@
         <v>2017</v>
       </c>
       <c r="F190">
-        <v>5.7542564509100954E-4</v>
+        <v>6.641487416666666E-4</v>
       </c>
       <c r="G190">
-        <v>0.57542564509100957</v>
+        <v>0.6641487416666666</v>
       </c>
       <c r="H190">
-        <v>575425.64509100956</v>
+        <v>664148.74166666658</v>
       </c>
       <c r="I190">
-        <v>575.42564509100953</v>
+        <v>664.14874166666664</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
@@ -6161,28 +6175,28 @@
         <v>25</v>
       </c>
       <c r="B191" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C191" t="s">
         <v>69</v>
       </c>
       <c r="D191" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E191">
         <v>2017</v>
       </c>
       <c r="F191">
-        <v>6.2062036495516108E-2</v>
+        <v>1.7600879999999996E-4</v>
       </c>
       <c r="G191">
-        <v>62.062036495516118</v>
+        <v>0.17600879999999999</v>
       </c>
       <c r="H191">
-        <v>62062036.495516114</v>
+        <v>176008.8</v>
       </c>
       <c r="I191">
-        <v>62062.036495516113</v>
+        <v>176.00879999999998</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
@@ -6190,28 +6204,28 @@
         <v>25</v>
       </c>
       <c r="B192" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C192" t="s">
         <v>69</v>
       </c>
       <c r="D192" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E192">
         <v>2017</v>
       </c>
       <c r="F192">
-        <v>6.641487416666666E-4</v>
+        <v>8.2280003461047746E-2</v>
       </c>
       <c r="G192">
-        <v>0.6641487416666666</v>
+        <v>82.280003461047741</v>
       </c>
       <c r="H192">
-        <v>664148.74166666658</v>
+        <v>82280003.461047739</v>
       </c>
       <c r="I192">
-        <v>664.14874166666664</v>
+        <v>82280.003461047745</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
@@ -6219,28 +6233,28 @@
         <v>25</v>
       </c>
       <c r="B193" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C193" t="s">
         <v>69</v>
       </c>
       <c r="D193" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E193">
         <v>2017</v>
       </c>
       <c r="F193">
-        <v>1.7600879999999996E-4</v>
+        <v>2.4094506496903406E-3</v>
       </c>
       <c r="G193">
-        <v>0.17600879999999999</v>
+        <v>2.4094506496903412</v>
       </c>
       <c r="H193">
-        <v>176008.8</v>
+        <v>2409450.6496903407</v>
       </c>
       <c r="I193">
-        <v>176.00879999999998</v>
+        <v>2409.4506496903409</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
@@ -6248,28 +6262,28 @@
         <v>25</v>
       </c>
       <c r="B194" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C194" t="s">
         <v>69</v>
       </c>
       <c r="D194" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E194">
         <v>2017</v>
       </c>
       <c r="F194">
-        <v>8.2280003461047746E-2</v>
+        <v>6.7219574614649467E-3</v>
       </c>
       <c r="G194">
-        <v>82.280003461047741</v>
+        <v>6.7219574614649478</v>
       </c>
       <c r="H194">
-        <v>82280003.461047739</v>
+        <v>6721957.4614649471</v>
       </c>
       <c r="I194">
-        <v>82280.003461047745</v>
+        <v>6721.9574614649473</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
@@ -6277,7 +6291,7 @@
         <v>25</v>
       </c>
       <c r="B195" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C195" t="s">
         <v>69</v>
@@ -6289,16 +6303,16 @@
         <v>2017</v>
       </c>
       <c r="F195">
-        <v>2.4094506496903406E-3</v>
+        <v>6.3965611508502804E-3</v>
       </c>
       <c r="G195">
-        <v>2.4094506496903412</v>
+        <v>6.3965611508502809</v>
       </c>
       <c r="H195">
-        <v>2409450.6496903407</v>
+        <v>6396561.1508502811</v>
       </c>
       <c r="I195">
-        <v>2409.4506496903409</v>
+        <v>6396.5611508502807</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.35">
@@ -6306,7 +6320,7 @@
         <v>25</v>
       </c>
       <c r="B196" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C196" t="s">
         <v>69</v>
@@ -6318,16 +6332,16 @@
         <v>2017</v>
       </c>
       <c r="F196">
-        <v>6.7219574614649467E-3</v>
+        <v>4.0238619964469155E-3</v>
       </c>
       <c r="G196">
-        <v>6.7219574614649478</v>
+        <v>4.0238619964469153</v>
       </c>
       <c r="H196">
-        <v>6721957.4614649471</v>
+        <v>4023861.9964469154</v>
       </c>
       <c r="I196">
-        <v>6721.9574614649473</v>
+        <v>4023.8619964469153</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
@@ -6335,28 +6349,28 @@
         <v>25</v>
       </c>
       <c r="B197" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C197" t="s">
         <v>69</v>
       </c>
       <c r="D197" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E197">
         <v>2017</v>
       </c>
       <c r="F197">
-        <v>6.3965611508502804E-3</v>
+        <v>-0.65478008208624039</v>
       </c>
       <c r="G197">
-        <v>6.3965611508502809</v>
+        <v>-654.78008208624044</v>
       </c>
       <c r="H197">
-        <v>6396561.1508502811</v>
+        <v>-654780082.08624041</v>
       </c>
       <c r="I197">
-        <v>6396.5611508502807</v>
+        <v>-654780.08208624041</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
@@ -6364,7 +6378,7 @@
         <v>25</v>
       </c>
       <c r="B198" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C198" t="s">
         <v>69</v>
@@ -6376,16 +6390,16 @@
         <v>2017</v>
       </c>
       <c r="F198">
-        <v>4.0238619964469155E-3</v>
+        <v>-2.4834355981577287E-2</v>
       </c>
       <c r="G198">
-        <v>4.0238619964469153</v>
+        <v>-24.834355981577289</v>
       </c>
       <c r="H198">
-        <v>4023861.9964469154</v>
+        <v>-24834355.981577288</v>
       </c>
       <c r="I198">
-        <v>4023.8619964469153</v>
+        <v>-24834.35598157729</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
@@ -6393,28 +6407,28 @@
         <v>18</v>
       </c>
       <c r="B199" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C199" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D199" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E199">
         <v>2005</v>
       </c>
       <c r="F199">
-        <v>9.5537399999999994E-4</v>
+        <v>8.0099999999999995E-4</v>
       </c>
       <c r="G199">
-        <v>0.95537400000000006</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="H199">
-        <v>955374</v>
+        <v>801000</v>
       </c>
       <c r="I199">
-        <v>955.37400000000002</v>
+        <v>801</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
@@ -6422,28 +6436,28 @@
         <v>18</v>
       </c>
       <c r="B200" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C200" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D200" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E200">
         <v>2005</v>
       </c>
       <c r="F200">
-        <v>1.29164839E-3</v>
+        <v>1.5099999999999998E-4</v>
       </c>
       <c r="G200">
-        <v>1.29164839</v>
+        <v>0.151</v>
       </c>
       <c r="H200">
-        <v>1291648.3900000001</v>
+        <v>151000</v>
       </c>
       <c r="I200">
-        <v>1291.6483900000001</v>
+        <v>151</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
@@ -6451,28 +6465,28 @@
         <v>18</v>
       </c>
       <c r="B201" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C201" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D201" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E201">
         <v>2005</v>
       </c>
       <c r="F201">
-        <v>2.3309999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="G201">
-        <v>2.3310000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>23310</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>23.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
@@ -6480,28 +6494,28 @@
         <v>18</v>
       </c>
       <c r="B202" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C202" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D202" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E202">
         <v>2005</v>
       </c>
       <c r="F202">
-        <v>2.8829999999999997E-3</v>
+        <v>6.3E-5</v>
       </c>
       <c r="G202">
-        <v>2.883</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H202">
-        <v>2883000</v>
+        <v>63000</v>
       </c>
       <c r="I202">
-        <v>2883</v>
+        <v>63</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
@@ -6509,28 +6523,28 @@
         <v>18</v>
       </c>
       <c r="B203" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C203" t="s">
         <v>69</v>
       </c>
       <c r="D203" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E203">
         <v>2005</v>
       </c>
       <c r="F203">
-        <v>3.3500000000000002E-8</v>
+        <v>9.5537399999999994E-4</v>
       </c>
       <c r="G203">
-        <v>3.3500000000000001E-5</v>
+        <v>0.95537400000000006</v>
       </c>
       <c r="H203">
-        <v>33.5</v>
+        <v>955374</v>
       </c>
       <c r="I203">
-        <v>3.3500000000000002E-2</v>
+        <v>955.37400000000002</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
@@ -6538,28 +6552,28 @@
         <v>18</v>
       </c>
       <c r="B204" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C204" t="s">
         <v>69</v>
       </c>
       <c r="D204" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E204">
         <v>2005</v>
       </c>
       <c r="F204">
-        <v>1.171E-5</v>
+        <v>1.29164839E-3</v>
       </c>
       <c r="G204">
-        <v>1.1710000000000002E-2</v>
+        <v>1.29164839</v>
       </c>
       <c r="H204">
-        <v>11710</v>
+        <v>1291648.3900000001</v>
       </c>
       <c r="I204">
-        <v>11.71</v>
+        <v>1291.6483900000001</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
@@ -6567,65 +6581,65 @@
         <v>18</v>
       </c>
       <c r="B205" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C205" t="s">
         <v>69</v>
       </c>
       <c r="D205" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E205">
         <v>2005</v>
       </c>
       <c r="F205">
-        <v>4.55E-4</v>
+        <v>2.3309999999999999E-5</v>
       </c>
       <c r="G205">
-        <v>0.45500000000000002</v>
+        <v>2.3310000000000001E-2</v>
       </c>
       <c r="H205">
-        <v>455000</v>
+        <v>23310</v>
       </c>
       <c r="I205">
-        <v>455</v>
+        <v>23.31</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B206" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C206" t="s">
         <v>69</v>
       </c>
       <c r="D206" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E206">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="F206">
-        <v>1.7724209999999997E-2</v>
+        <v>2.8829999999999997E-3</v>
       </c>
       <c r="G206">
-        <v>17.724209999999999</v>
+        <v>2.883</v>
       </c>
       <c r="H206">
-        <v>17724210</v>
+        <v>2883000</v>
       </c>
       <c r="I206">
-        <v>17724.21</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B207" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C207" t="s">
         <v>69</v>
@@ -6634,230 +6648,230 @@
         <v>73</v>
       </c>
       <c r="E207">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="F207">
-        <v>1.6695699999999998E-3</v>
+        <v>3.3500000000000002E-8</v>
       </c>
       <c r="G207">
-        <v>1.66957</v>
+        <v>3.3500000000000001E-5</v>
       </c>
       <c r="H207">
-        <v>1669570</v>
+        <v>33.5</v>
       </c>
       <c r="I207">
-        <v>1669.57</v>
+        <v>3.3500000000000002E-2</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B208" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C208" t="s">
         <v>69</v>
       </c>
       <c r="D208" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E208">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="F208">
-        <v>1.55155E-2</v>
+        <v>1.171E-5</v>
       </c>
       <c r="G208">
-        <v>15.515500000000001</v>
+        <v>1.1710000000000002E-2</v>
       </c>
       <c r="H208">
-        <v>15515500</v>
+        <v>11710</v>
       </c>
       <c r="I208">
-        <v>15515.5</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B209" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C209" t="s">
         <v>69</v>
       </c>
       <c r="D209" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E209">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="F209">
-        <v>4.5432999999999997E-4</v>
+        <v>4.55E-4</v>
       </c>
       <c r="G209">
-        <v>0.45433000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="H209">
-        <v>454330</v>
+        <v>455000</v>
       </c>
       <c r="I209">
-        <v>454.33</v>
+        <v>455</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B210" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C210" t="s">
         <v>69</v>
       </c>
       <c r="D210" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E210">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="F210">
-        <v>9.1909999999999992E-5</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="G210">
-        <v>9.1909999999999992E-2</v>
+        <v>-9</v>
       </c>
       <c r="H210">
-        <v>91910</v>
+        <v>-9000000</v>
       </c>
       <c r="I210">
-        <v>91.91</v>
+        <v>-9000</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B211" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C211" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D211" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E211">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="F211">
-        <v>3.0212359175616648E-3</v>
+        <v>0.29756634999999998</v>
       </c>
       <c r="G211">
-        <v>3.0212359175616648</v>
+        <v>297.56635</v>
       </c>
       <c r="H211">
-        <v>3021235.9175616647</v>
+        <v>297566350</v>
       </c>
       <c r="I211">
-        <v>3021.2359175616648</v>
+        <v>297566.34999999998</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B212" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C212" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D212" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E212">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="F212">
-        <v>5.9529045086967553E-4</v>
+        <v>3.0386219999999999E-2</v>
       </c>
       <c r="G212">
-        <v>0.59529045086967547</v>
+        <v>30.386220000000002</v>
       </c>
       <c r="H212">
-        <v>595290.45086967549</v>
+        <v>30386220</v>
       </c>
       <c r="I212">
-        <v>595.29045086967551</v>
+        <v>30386.22</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C213" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D213" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E213">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="F213">
-        <v>3.4426628855115157E-3</v>
+        <v>1.642907E-2</v>
       </c>
       <c r="G213">
-        <v>3.442662885511516</v>
+        <v>16.429069999999999</v>
       </c>
       <c r="H213">
-        <v>3442662.8855115161</v>
+        <v>16429070</v>
       </c>
       <c r="I213">
-        <v>3442.6628855115159</v>
+        <v>16429.07</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B214" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C214" t="s">
         <v>69</v>
       </c>
       <c r="D214" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E214">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="F214">
-        <v>1.2670115333333331E-4</v>
+        <v>1.7724209999999997E-2</v>
       </c>
       <c r="G214">
-        <v>0.12670115333333332</v>
+        <v>17.724209999999999</v>
       </c>
       <c r="H214">
-        <v>126701.15333333332</v>
+        <v>17724210</v>
       </c>
       <c r="I214">
-        <v>126.70115333333332</v>
+        <v>17724.21</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B215" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C215" t="s">
         <v>69</v>
@@ -6866,288 +6880,288 @@
         <v>73</v>
       </c>
       <c r="E215">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="F215">
-        <v>8.3695652173912998E-7</v>
+        <v>1.6695699999999998E-3</v>
       </c>
       <c r="G215">
-        <v>8.3695652173913001E-4</v>
+        <v>1.66957</v>
       </c>
       <c r="H215">
-        <v>836.95652173913004</v>
+        <v>1669570</v>
       </c>
       <c r="I215">
-        <v>0.83695652173913004</v>
+        <v>1669.57</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B216" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C216" t="s">
         <v>69</v>
       </c>
       <c r="D216" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E216">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="F216">
-        <v>3.6791113902420029E-3</v>
+        <v>1.55155E-2</v>
       </c>
       <c r="G216">
-        <v>3.679111390242003</v>
+        <v>15.515500000000001</v>
       </c>
       <c r="H216">
-        <v>3679111.3902420029</v>
+        <v>15515500</v>
       </c>
       <c r="I216">
-        <v>3679.1113902420029</v>
+        <v>15515.5</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B217" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C217" t="s">
         <v>69</v>
       </c>
       <c r="D217" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E217">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="F217">
-        <v>9.1134828000000051E-5</v>
+        <v>4.5432999999999997E-4</v>
       </c>
       <c r="G217">
-        <v>9.1134828000000057E-2</v>
+        <v>0.45433000000000001</v>
       </c>
       <c r="H217">
-        <v>91134.828000000052</v>
+        <v>454330</v>
       </c>
       <c r="I217">
-        <v>91.134828000000056</v>
+        <v>454.33</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B218" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C218" t="s">
         <v>69</v>
       </c>
       <c r="D218" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E218">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="F218">
-        <v>2.0399873033333349E-4</v>
+        <v>9.1909999999999992E-5</v>
       </c>
       <c r="G218">
-        <v>0.20399873033333349</v>
+        <v>9.1909999999999992E-2</v>
       </c>
       <c r="H218">
-        <v>203998.73033333349</v>
+        <v>91910</v>
       </c>
       <c r="I218">
-        <v>203.9987303333335</v>
+        <v>91.91</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B219" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C219" t="s">
         <v>69</v>
       </c>
       <c r="D219" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E219">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="F219">
-        <v>2.2099709660000017E-3</v>
+        <v>-1.0885809999999999E-2</v>
       </c>
       <c r="G219">
-        <v>2.2099709660000015</v>
+        <v>-10.885809999999999</v>
       </c>
       <c r="H219">
-        <v>2209970.9660000019</v>
+        <v>-10885810</v>
       </c>
       <c r="I219">
-        <v>2209.9709660000017</v>
+        <v>-10885.81</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B220" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C220" t="s">
         <v>69</v>
       </c>
       <c r="D220" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E220">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="F220">
-        <v>2.1458435079875E-2</v>
+        <v>-7.730149999999999E-3</v>
       </c>
       <c r="G220">
-        <v>21.458435079875002</v>
+        <v>-7.7301500000000001</v>
       </c>
       <c r="H220">
-        <v>21458435.079875004</v>
+        <v>-7730150</v>
       </c>
       <c r="I220">
-        <v>21458.435079875002</v>
+        <v>-7730.15</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C221" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D221" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E221">
         <v>2017</v>
       </c>
       <c r="F221">
-        <v>7.0415925393601695E-3</v>
+        <v>3.6631715142521122E-2</v>
       </c>
       <c r="G221">
-        <v>7.0415925393601704</v>
+        <v>36.631715142521131</v>
       </c>
       <c r="H221">
-        <v>7041592.5393601703</v>
+        <v>36631715.142521128</v>
       </c>
       <c r="I221">
-        <v>7041.5925393601701</v>
+        <v>36631.715142521127</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B222" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C222" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D222" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E222">
         <v>2017</v>
       </c>
       <c r="F222">
-        <v>1.1466789583260018E-2</v>
+        <v>7.5884258452634098E-3</v>
       </c>
       <c r="G222">
-        <v>11.466789583260018</v>
+        <v>7.5884258452634104</v>
       </c>
       <c r="H222">
-        <v>11466789.583260018</v>
+        <v>7588425.8452634104</v>
       </c>
       <c r="I222">
-        <v>11466.789583260019</v>
+        <v>7588.4258452634103</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B223" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C223" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D223" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E223">
         <v>2017</v>
       </c>
       <c r="F223">
-        <v>9.3667395209666676E-4</v>
+        <v>1.2533990826406566E-3</v>
       </c>
       <c r="G223">
-        <v>0.93667395209666682</v>
+        <v>1.2533990826406567</v>
       </c>
       <c r="H223">
-        <v>936673.95209666679</v>
+        <v>1253399.0826406565</v>
       </c>
       <c r="I223">
-        <v>936.67395209666677</v>
+        <v>1253.3990826406566</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B224" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C224" t="s">
         <v>69</v>
       </c>
       <c r="D224" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E224">
         <v>2017</v>
       </c>
       <c r="F224">
-        <v>3.4395222865666664E-4</v>
+        <v>3.0212359175616648E-3</v>
       </c>
       <c r="G224">
-        <v>0.34395222865666664</v>
+        <v>3.0212359175616648</v>
       </c>
       <c r="H224">
-        <v>343952.22865666664</v>
+        <v>3021235.9175616647</v>
       </c>
       <c r="I224">
-        <v>343.95222865666665</v>
+        <v>3021.2359175616648</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B225" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C225" t="s">
         <v>69</v>
@@ -7159,688 +7173,688 @@
         <v>2017</v>
       </c>
       <c r="F225">
-        <v>3.0166091796036943E-4</v>
+        <v>5.9529045086967553E-4</v>
       </c>
       <c r="G225">
-        <v>0.30166091796036942</v>
+        <v>0.59529045086967547</v>
       </c>
       <c r="H225">
-        <v>301660.91796036944</v>
+        <v>595290.45086967549</v>
       </c>
       <c r="I225">
-        <v>301.66091796036943</v>
+        <v>595.29045086967551</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B226" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C226" t="s">
         <v>69</v>
       </c>
       <c r="D226" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E226">
         <v>2017</v>
       </c>
       <c r="F226">
-        <v>1.1433229662335915E-2</v>
+        <v>3.4426628855115157E-3</v>
       </c>
       <c r="G226">
-        <v>11.433229662335917</v>
+        <v>3.442662885511516</v>
       </c>
       <c r="H226">
-        <v>11433229.662335915</v>
+        <v>3442662.8855115161</v>
       </c>
       <c r="I226">
-        <v>11433.229662335916</v>
+        <v>3442.6628855115159</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B227" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C227" t="s">
         <v>69</v>
       </c>
       <c r="D227" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E227">
         <v>2017</v>
       </c>
       <c r="F227">
-        <v>3.3707408146420315E-4</v>
+        <v>1.2670115333333331E-4</v>
       </c>
       <c r="G227">
-        <v>0.3370740814642032</v>
+        <v>0.12670115333333332</v>
       </c>
       <c r="H227">
-        <v>337074.08146420319</v>
+        <v>126701.15333333332</v>
       </c>
       <c r="I227">
-        <v>337.07408146420318</v>
+        <v>126.70115333333332</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B228" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C228" t="s">
         <v>69</v>
       </c>
       <c r="D228" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E228">
         <v>2017</v>
       </c>
       <c r="F228">
-        <v>6.9845902288543016E-3</v>
+        <v>8.3695652173912998E-7</v>
       </c>
       <c r="G228">
-        <v>6.9845902288543025</v>
+        <v>8.3695652173913001E-4</v>
       </c>
       <c r="H228">
-        <v>6984590.2288543023</v>
+        <v>836.95652173913004</v>
       </c>
       <c r="I228">
-        <v>6984.590228854302</v>
+        <v>0.83695652173913004</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B229" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C229" t="s">
         <v>69</v>
       </c>
       <c r="D229" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E229">
         <v>2017</v>
       </c>
       <c r="F229">
-        <v>0.17544476053167948</v>
+        <v>3.6791113902420029E-3</v>
       </c>
       <c r="G229">
-        <v>175.44476053167949</v>
+        <v>3.679111390242003</v>
       </c>
       <c r="H229">
-        <v>175444760.53167948</v>
+        <v>3679111.3902420029</v>
       </c>
       <c r="I229">
-        <v>175444.76053167949</v>
+        <v>3679.1113902420029</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B230" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C230" t="s">
         <v>69</v>
       </c>
       <c r="D230" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E230">
         <v>2017</v>
       </c>
       <c r="F230">
-        <v>8.0367231998909841E-2</v>
+        <v>9.1134828000000051E-5</v>
       </c>
       <c r="G230">
-        <v>80.367231998909844</v>
+        <v>9.1134828000000057E-2</v>
       </c>
       <c r="H230">
-        <v>80367231.998909846</v>
+        <v>91134.828000000052</v>
       </c>
       <c r="I230">
-        <v>80367.231998909847</v>
+        <v>91.134828000000056</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B231" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C231" t="s">
         <v>69</v>
       </c>
       <c r="D231" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E231">
         <v>2017</v>
       </c>
       <c r="F231">
-        <v>1.1345299999999999E-2</v>
+        <v>2.0399873033333349E-4</v>
       </c>
       <c r="G231">
-        <v>11.3453</v>
+        <v>0.20399873033333349</v>
       </c>
       <c r="H231">
-        <v>11345300</v>
+        <v>203998.73033333349</v>
       </c>
       <c r="I231">
-        <v>11345.3</v>
+        <v>203.9987303333335</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B232" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C232" t="s">
         <v>69</v>
       </c>
       <c r="D232" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E232">
         <v>2017</v>
       </c>
       <c r="F232">
-        <v>0.2664115905174152</v>
+        <v>2.2099709660000017E-3</v>
       </c>
       <c r="G232">
-        <v>266.41159051741522</v>
+        <v>2.2099709660000015</v>
       </c>
       <c r="H232">
-        <v>266411590.5174152</v>
+        <v>2209970.9660000019</v>
       </c>
       <c r="I232">
-        <v>266411.5905174152</v>
+        <v>2209.9709660000017</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B233" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C233" t="s">
         <v>69</v>
       </c>
       <c r="D233" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E233">
         <v>2017</v>
       </c>
       <c r="F233">
-        <v>2.6982872289528774E-4</v>
+        <v>-4.319330582733337E-2</v>
       </c>
       <c r="G233">
-        <v>0.26982872289528775</v>
+        <v>-43.193305827333376</v>
       </c>
       <c r="H233">
-        <v>269828.72289528773</v>
+        <v>-43193305.827333376</v>
       </c>
       <c r="I233">
-        <v>269.82872289528774</v>
+        <v>-43193.305827333374</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B234" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C234" t="s">
         <v>69</v>
       </c>
       <c r="D234" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E234">
         <v>2017</v>
       </c>
       <c r="F234">
-        <v>3.1822233709522278E-3</v>
+        <v>-7.4878430000000091E-6</v>
       </c>
       <c r="G234">
-        <v>3.1822233709522281</v>
+        <v>-7.4878430000000096E-3</v>
       </c>
       <c r="H234">
-        <v>3182223.3709522281</v>
+        <v>-7487.8430000000099</v>
       </c>
       <c r="I234">
-        <v>3182.2233709522279</v>
+        <v>-7.4878430000000096</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B235" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C235" t="s">
         <v>69</v>
       </c>
       <c r="D235" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E235">
         <v>2017</v>
       </c>
       <c r="F235">
-        <v>5.0514456292627651E-3</v>
+        <v>-6.7138023943678999E-3</v>
       </c>
       <c r="G235">
-        <v>5.0514456292627656</v>
+        <v>-6.7138023943679004</v>
       </c>
       <c r="H235">
-        <v>5051445.6292627659</v>
+        <v>-6713802.3943678997</v>
       </c>
       <c r="I235">
-        <v>5051.4456292627656</v>
+        <v>-6713.8023943679</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B236" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C236" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D236" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E236">
         <v>2017</v>
       </c>
       <c r="F236">
-        <v>5.6585065397429919E-2</v>
+        <v>0.38180282571861951</v>
       </c>
       <c r="G236">
-        <v>56.585065397429922</v>
+        <v>381.80282571861954</v>
       </c>
       <c r="H236">
-        <v>56585065.397429921</v>
+        <v>381802825.71861953</v>
       </c>
       <c r="I236">
-        <v>56585.06539742992</v>
+        <v>381802.82571861951</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B237" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C237" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D237" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E237">
         <v>2017</v>
       </c>
       <c r="F237">
-        <v>8.9291332987455133E-3</v>
+        <v>3.0330485879475712E-2</v>
       </c>
       <c r="G237">
-        <v>8.9291332987455139</v>
+        <v>30.330485879475713</v>
       </c>
       <c r="H237">
-        <v>8929133.298745513</v>
+        <v>30330485.879475713</v>
       </c>
       <c r="I237">
-        <v>8929.1332987455135</v>
+        <v>30330.485879475713</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B238" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C238" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D238" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E238">
         <v>2017</v>
       </c>
       <c r="F238">
-        <v>1.609498E-4</v>
+        <v>2.0663703237367728E-2</v>
       </c>
       <c r="G238">
-        <v>0.1609498</v>
+        <v>20.663703237367727</v>
       </c>
       <c r="H238">
-        <v>160949.80000000002</v>
+        <v>20663703.237367727</v>
       </c>
       <c r="I238">
-        <v>160.94980000000001</v>
+        <v>20663.703237367728</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B239" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C239" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D239" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E239">
         <v>2017</v>
       </c>
       <c r="F239">
-        <v>-6.1148021075200877E-2</v>
+        <v>0</v>
       </c>
       <c r="G239">
-        <v>-61.14802107520088</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>-61148021.075200878</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>-61148.021075200879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B240" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C240" t="s">
         <v>69</v>
       </c>
       <c r="D240" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E240">
         <v>2017</v>
       </c>
       <c r="F240">
-        <v>-1.4444429385289058E-3</v>
+        <v>2.1458435079875E-2</v>
       </c>
       <c r="G240">
-        <v>-1.4444429385289059</v>
+        <v>21.458435079875002</v>
       </c>
       <c r="H240">
-        <v>-1444442.9385289059</v>
+        <v>21458435.079875004</v>
       </c>
       <c r="I240">
-        <v>-1444.4429385289059</v>
+        <v>21458.435079875002</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B241" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C241" t="s">
         <v>69</v>
       </c>
       <c r="D241" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E241">
         <v>2017</v>
       </c>
       <c r="F241">
-        <v>-4.6494039353947303E-3</v>
+        <v>7.0415925393601695E-3</v>
       </c>
       <c r="G241">
-        <v>-4.6494039353947301</v>
+        <v>7.0415925393601704</v>
       </c>
       <c r="H241">
-        <v>-4649403.9353947304</v>
+        <v>7041592.5393601703</v>
       </c>
       <c r="I241">
-        <v>-4649.4039353947301</v>
+        <v>7041.5925393601701</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B242" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C242" t="s">
         <v>69</v>
       </c>
       <c r="D242" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E242">
         <v>2017</v>
       </c>
       <c r="F242">
-        <v>-0.15143120268074012</v>
+        <v>1.1466789583260018E-2</v>
       </c>
       <c r="G242">
-        <v>-151.43120268074014</v>
+        <v>11.466789583260018</v>
       </c>
       <c r="H242">
-        <v>-151431202.68074012</v>
+        <v>11466789.583260018</v>
       </c>
       <c r="I242">
-        <v>-151431.20268074013</v>
+        <v>11466.789583260019</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B243" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C243" t="s">
         <v>69</v>
       </c>
       <c r="D243" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E243">
         <v>2017</v>
       </c>
       <c r="F243">
-        <v>-6.8292914230233407E-3</v>
+        <v>9.3667395209666676E-4</v>
       </c>
       <c r="G243">
-        <v>-6.8292914230233412</v>
+        <v>0.93667395209666682</v>
       </c>
       <c r="H243">
-        <v>-6829291.4230233412</v>
+        <v>936673.95209666679</v>
       </c>
       <c r="I243">
-        <v>-6829.2914230233409</v>
+        <v>936.67395209666677</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B244" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C244" t="s">
         <v>69</v>
       </c>
       <c r="D244" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E244">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F244">
-        <v>-0.59752899999999998</v>
+        <v>3.4395222865666664E-4</v>
       </c>
       <c r="G244">
-        <v>-597.529</v>
+        <v>0.34395222865666664</v>
       </c>
       <c r="H244">
-        <v>-597529000</v>
+        <v>343952.22865666664</v>
       </c>
       <c r="I244">
-        <v>-597529</v>
+        <v>343.95222865666665</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B245" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C245" t="s">
         <v>69</v>
       </c>
       <c r="D245" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E245">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="F245">
-        <v>-1.0038999999999999E-4</v>
+        <v>3.0166091796036943E-4</v>
       </c>
       <c r="G245">
-        <v>-0.10039000000000001</v>
+        <v>0.30166091796036942</v>
       </c>
       <c r="H245">
-        <v>-100390</v>
+        <v>301660.91796036944</v>
       </c>
       <c r="I245">
-        <v>-100.39</v>
+        <v>301.66091796036943</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B246" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C246" t="s">
         <v>69</v>
       </c>
       <c r="D246" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E246">
         <v>2017</v>
       </c>
       <c r="F246">
-        <v>-2.7018259657000027E-2</v>
+        <v>1.1433229662335915E-2</v>
       </c>
       <c r="G246">
-        <v>-27.01825965700003</v>
+        <v>11.433229662335917</v>
       </c>
       <c r="H246">
-        <v>-27018259.657000028</v>
+        <v>11433229.662335915</v>
       </c>
       <c r="I246">
-        <v>-27018.259657000028</v>
+        <v>11433.229662335916</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B247" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C247" t="s">
         <v>69</v>
       </c>
       <c r="D247" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E247">
         <v>2017</v>
       </c>
       <c r="F247">
-        <v>-3.9904219999999995E-3</v>
+        <v>3.3707408146420315E-4</v>
       </c>
       <c r="G247">
-        <v>-3.9904220000000001</v>
+        <v>0.3370740814642032</v>
       </c>
       <c r="H247">
-        <v>-3990422</v>
+        <v>337074.08146420319</v>
       </c>
       <c r="I247">
-        <v>-3990.422</v>
+        <v>337.07408146420318</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B248" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C248" t="s">
         <v>69</v>
       </c>
       <c r="D248" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E248">
         <v>2017</v>
       </c>
       <c r="F248">
-        <v>-3.0366674806440001E-3</v>
+        <v>6.9845902288543016E-3</v>
       </c>
       <c r="G248">
-        <v>-3.0366674806440002</v>
+        <v>6.9845902288543025</v>
       </c>
       <c r="H248">
-        <v>-3036667.4806440002</v>
+        <v>6984590.2288543023</v>
       </c>
       <c r="I248">
-        <v>-3036.6674806440001</v>
+        <v>6984.590228854302</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B249" t="s">
         <v>63</v>
@@ -7855,427 +7869,427 @@
         <v>2017</v>
       </c>
       <c r="F249">
-        <v>-5.7600120794385742E-2</v>
+        <v>-1.8064803553605752E-2</v>
       </c>
       <c r="G249">
-        <v>-57.600120794385745</v>
+        <v>-18.064803553605753</v>
       </c>
       <c r="H249">
-        <v>-57600120.794385746</v>
+        <v>-18064803.553605754</v>
       </c>
       <c r="I249">
-        <v>-57600.120794385744</v>
+        <v>-18064.803553605754</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B250" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C250" t="s">
         <v>69</v>
       </c>
       <c r="D250" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E250">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F250">
-        <v>-1.6327000000000001E-2</v>
+        <v>-8.8107866584118139E-3</v>
       </c>
       <c r="G250">
-        <v>-16.327000000000002</v>
+        <v>-8.8107866584118142</v>
       </c>
       <c r="H250">
-        <v>-16327000</v>
+        <v>-8810786.6584118139</v>
       </c>
       <c r="I250">
-        <v>-16327</v>
+        <v>-8810.7866584118146</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B251" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C251" t="s">
         <v>69</v>
       </c>
       <c r="D251" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E251">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F251">
-        <v>-3.7075999999999998E-2</v>
+        <v>-2.0156046111131499E-3</v>
       </c>
       <c r="G251">
-        <v>-37.076000000000001</v>
+        <v>-2.01560461111315</v>
       </c>
       <c r="H251">
-        <v>-37076000</v>
+        <v>-2015604.6111131499</v>
       </c>
       <c r="I251">
-        <v>-37076</v>
+        <v>-2015.60461111315</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>16</v>
-      </c>
-      <c r="B252" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B252" t="s">
+        <v>29</v>
       </c>
       <c r="C252" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D252" t="s">
-        <v>79</v>
-      </c>
-      <c r="E252" t="e">
-        <v>#N/A</v>
+        <v>70</v>
+      </c>
+      <c r="E252">
+        <v>2017</v>
       </c>
       <c r="F252">
-        <v>-0.26045673999999996</v>
+        <v>5.4248234975761669</v>
       </c>
       <c r="G252">
-        <v>-260.45673999999997</v>
+        <v>5424.823497576167</v>
       </c>
       <c r="H252">
-        <v>-260456740</v>
+        <v>5424823497.5761671</v>
       </c>
       <c r="I252">
-        <v>-260456.74</v>
+        <v>5424823.4975761669</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B253" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C253" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D253" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E253">
         <v>2017</v>
       </c>
       <c r="F253">
-        <v>-2.907708076419336E-2</v>
+        <v>0.35886689782610354</v>
       </c>
       <c r="G253">
-        <v>-29.077080764193362</v>
+        <v>358.86689782610358</v>
       </c>
       <c r="H253">
-        <v>-29077080.76419336</v>
+        <v>358866897.82610357</v>
       </c>
       <c r="I253">
-        <v>-29077.080764193361</v>
+        <v>358866.89782610355</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B254" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C254" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D254" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E254">
         <v>2017</v>
       </c>
       <c r="F254">
-        <v>-2.3699999999999999E-4</v>
+        <v>0.13095541665689484</v>
       </c>
       <c r="G254">
-        <v>-0.23700000000000002</v>
+        <v>130.95541665689484</v>
       </c>
       <c r="H254">
-        <v>-237000</v>
+        <v>130955416.65689483</v>
       </c>
       <c r="I254">
-        <v>-237</v>
+        <v>130955.41665689483</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C255" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D255" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E255">
         <v>2017</v>
       </c>
       <c r="F255">
-        <v>-0.65478008208624039</v>
+        <v>0</v>
       </c>
       <c r="G255">
-        <v>-654.78008208624044</v>
+        <v>0</v>
       </c>
       <c r="H255">
-        <v>-654780082.08624041</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>-654780.08208624041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B256" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C256" t="s">
         <v>69</v>
       </c>
       <c r="D256" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E256">
         <v>2017</v>
       </c>
       <c r="F256">
-        <v>-2.4834355981577287E-2</v>
+        <v>0.17544476053167948</v>
       </c>
       <c r="G256">
-        <v>-24.834355981577289</v>
+        <v>175.44476053167949</v>
       </c>
       <c r="H256">
-        <v>-24834355.981577288</v>
+        <v>175444760.53167948</v>
       </c>
       <c r="I256">
-        <v>-24834.35598157729</v>
+        <v>175444.76053167949</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B257" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C257" t="s">
         <v>69</v>
       </c>
       <c r="D257" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E257">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="F257">
-        <v>-8.9999999999999993E-3</v>
+        <v>8.0367231998909841E-2</v>
       </c>
       <c r="G257">
-        <v>-9</v>
+        <v>80.367231998909844</v>
       </c>
       <c r="H257">
-        <v>-9000000</v>
+        <v>80367231.998909846</v>
       </c>
       <c r="I257">
-        <v>-9000</v>
+        <v>80367.231998909847</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B258" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C258" t="s">
         <v>69</v>
       </c>
       <c r="D258" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E258">
-        <v>1994</v>
+        <v>2017</v>
       </c>
       <c r="F258">
-        <v>-1.0885809999999999E-2</v>
+        <v>1.1345299999999999E-2</v>
       </c>
       <c r="G258">
-        <v>-10.885809999999999</v>
+        <v>11.3453</v>
       </c>
       <c r="H258">
-        <v>-10885810</v>
+        <v>11345300</v>
       </c>
       <c r="I258">
-        <v>-10885.81</v>
+        <v>11345.3</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B259" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C259" t="s">
         <v>69</v>
       </c>
       <c r="D259" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E259">
-        <v>1994</v>
+        <v>2017</v>
       </c>
       <c r="F259">
-        <v>-7.730149999999999E-3</v>
+        <v>0.2664115905174152</v>
       </c>
       <c r="G259">
-        <v>-7.7301500000000001</v>
+        <v>266.41159051741522</v>
       </c>
       <c r="H259">
-        <v>-7730150</v>
+        <v>266411590.5174152</v>
       </c>
       <c r="I259">
-        <v>-7730.15</v>
+        <v>266411.5905174152</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B260" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C260" t="s">
         <v>69</v>
       </c>
       <c r="D260" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E260">
         <v>2017</v>
       </c>
       <c r="F260">
-        <v>-4.319330582733337E-2</v>
+        <v>2.6982872289528774E-4</v>
       </c>
       <c r="G260">
-        <v>-43.193305827333376</v>
+        <v>0.26982872289528775</v>
       </c>
       <c r="H260">
-        <v>-43193305.827333376</v>
+        <v>269828.72289528773</v>
       </c>
       <c r="I260">
-        <v>-43193.305827333374</v>
+        <v>269.82872289528774</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B261" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C261" t="s">
         <v>69</v>
       </c>
       <c r="D261" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E261">
         <v>2017</v>
       </c>
       <c r="F261">
-        <v>-7.4878430000000091E-6</v>
+        <v>3.1822233709522278E-3</v>
       </c>
       <c r="G261">
-        <v>-7.4878430000000096E-3</v>
+        <v>3.1822233709522281</v>
       </c>
       <c r="H261">
-        <v>-7487.8430000000099</v>
+        <v>3182223.3709522281</v>
       </c>
       <c r="I261">
-        <v>-7.4878430000000096</v>
+        <v>3182.2233709522279</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B262" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C262" t="s">
         <v>69</v>
       </c>
       <c r="D262" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E262">
         <v>2017</v>
       </c>
       <c r="F262">
-        <v>-6.7138023943678999E-3</v>
+        <v>5.0514456292627651E-3</v>
       </c>
       <c r="G262">
-        <v>-6.7138023943679004</v>
+        <v>5.0514456292627656</v>
       </c>
       <c r="H262">
-        <v>-6713802.3943678997</v>
+        <v>5051445.6292627659</v>
       </c>
       <c r="I262">
-        <v>-6713.8023943679</v>
+        <v>5051.4456292627656</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B263" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C263" t="s">
         <v>69</v>
       </c>
       <c r="D263" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E263">
         <v>2017</v>
       </c>
       <c r="F263">
-        <v>-1.8064803553605752E-2</v>
+        <v>5.6585065397429919E-2</v>
       </c>
       <c r="G263">
-        <v>-18.064803553605753</v>
+        <v>56.585065397429922</v>
       </c>
       <c r="H263">
-        <v>-18064803.553605754</v>
+        <v>56585065.397429921</v>
       </c>
       <c r="I263">
-        <v>-18064.803553605754</v>
+        <v>56585.06539742992</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B264" t="s">
         <v>52</v>
@@ -8284,30 +8298,30 @@
         <v>69</v>
       </c>
       <c r="D264" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E264">
         <v>2017</v>
       </c>
       <c r="F264">
-        <v>-8.8107866584118139E-3</v>
+        <v>8.9291332987455133E-3</v>
       </c>
       <c r="G264">
-        <v>-8.8107866584118142</v>
+        <v>8.9291332987455139</v>
       </c>
       <c r="H264">
-        <v>-8810786.6584118139</v>
+        <v>8929133.298745513</v>
       </c>
       <c r="I264">
-        <v>-8810.7866584118146</v>
+        <v>8929.1332987455135</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B265" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C265" t="s">
         <v>69</v>
@@ -8319,16 +8333,16 @@
         <v>2017</v>
       </c>
       <c r="F265">
-        <v>-2.0156046111131499E-3</v>
+        <v>1.609498E-4</v>
       </c>
       <c r="G265">
-        <v>-2.01560461111315</v>
+        <v>0.1609498</v>
       </c>
       <c r="H265">
-        <v>-2015604.6111131499</v>
+        <v>160949.80000000002</v>
       </c>
       <c r="I265">
-        <v>-2015.60461111315</v>
+        <v>160.94980000000001</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.35">
@@ -8448,6 +8462,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I269" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I269">
+      <sortCondition ref="A1:A269"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>